--- a/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/MainServlet_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/MainServlet_クラス仕様書.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A3CEC-BB48-443E-8185-6CC2D0E39CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26085" windowHeight="12180"/>
+    <workbookView xWindow="3384" yWindow="960" windowWidth="17280" windowHeight="9408" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -15,12 +16,23 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（doGet）'!$A$1:$BI$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（doPost）'!$A$1:$BI$53</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -172,11 +184,27 @@
     <t>イベントに対応するServletクラスです。</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1.String型の変数pathに遷移先であるmain.jspを定義する</t>
+    <rPh sb="8" eb="9">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンスウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-411]yyyy/mm/dd"/>
   </numFmts>
@@ -516,29 +544,29 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -657,6 +685,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -692,6 +737,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -867,19 +929,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IX22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="2"/>
+    <col min="1" max="16384" width="2.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -894,69 +956,69 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37" t="s">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="36" t="s">
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="36" t="s">
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="37" t="s">
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="36" t="s">
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="38">
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="39">
         <v>45000</v>
       </c>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1155,7 +1217,7 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1168,66 +1230,66 @@
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="36" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37">
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="41">
         <f>クラス仕様!G5</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="36" t="s">
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1426,1115 +1488,1145 @@
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
     </row>
-    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="42" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="43" t="s">
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AG6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="AK6" s="43"/>
-      <c r="AL6" s="43"/>
-      <c r="AM6" s="43"/>
-      <c r="AN6" s="43"/>
-      <c r="AO6" s="43"/>
-      <c r="AP6" s="43"/>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="43"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="43"/>
-      <c r="AU6" s="43"/>
-      <c r="AV6" s="43"/>
-      <c r="AW6" s="43"/>
-      <c r="AX6" s="43"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="43"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="43"/>
-      <c r="BD6" s="43"/>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="43"/>
-      <c r="BG6" s="43"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="43"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
+      <c r="AX6" s="38"/>
+      <c r="AY6" s="38"/>
+      <c r="AZ6" s="38"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
+      <c r="BC6" s="38"/>
+      <c r="BD6" s="38"/>
+      <c r="BE6" s="38"/>
+      <c r="BF6" s="38"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
+      <c r="BI6" s="38"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42" t="s">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42" t="s">
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42" t="s">
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="42"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="42"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="42"/>
-      <c r="BI8" s="42"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="37"/>
+      <c r="BG8" s="37"/>
+      <c r="BH8" s="37"/>
+      <c r="BI8" s="37"/>
     </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="39"/>
-      <c r="X9" s="39"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="39"/>
-      <c r="AE9" s="39"/>
-      <c r="AF9" s="39"/>
-      <c r="AG9" s="39"/>
-      <c r="AH9" s="39"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39"/>
-      <c r="AY9" s="39"/>
-      <c r="AZ9" s="39"/>
-      <c r="BA9" s="39"/>
-      <c r="BB9" s="39"/>
-      <c r="BC9" s="39"/>
-      <c r="BD9" s="39"/>
-      <c r="BE9" s="39"/>
-      <c r="BF9" s="39"/>
-      <c r="BG9" s="39"/>
-      <c r="BH9" s="39"/>
-      <c r="BI9" s="39"/>
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="36"/>
+      <c r="AF9" s="36"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+      <c r="AJ9" s="36"/>
+      <c r="AK9" s="36"/>
+      <c r="AL9" s="36"/>
+      <c r="AM9" s="36"/>
+      <c r="AN9" s="36"/>
+      <c r="AO9" s="36"/>
+      <c r="AP9" s="36"/>
+      <c r="AQ9" s="36"/>
+      <c r="AR9" s="36"/>
+      <c r="AS9" s="36"/>
+      <c r="AT9" s="36"/>
+      <c r="AU9" s="36"/>
+      <c r="AV9" s="36"/>
+      <c r="AW9" s="36"/>
+      <c r="AX9" s="36"/>
+      <c r="AY9" s="36"/>
+      <c r="AZ9" s="36"/>
+      <c r="BA9" s="36"/>
+      <c r="BB9" s="36"/>
+      <c r="BC9" s="36"/>
+      <c r="BD9" s="36"/>
+      <c r="BE9" s="36"/>
+      <c r="BF9" s="36"/>
+      <c r="BG9" s="36"/>
+      <c r="BH9" s="36"/>
+      <c r="BI9" s="36"/>
     </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="39"/>
-      <c r="AM10" s="39"/>
-      <c r="AN10" s="39"/>
-      <c r="AO10" s="39"/>
-      <c r="AP10" s="39"/>
-      <c r="AQ10" s="39"/>
-      <c r="AR10" s="39"/>
-      <c r="AS10" s="39"/>
-      <c r="AT10" s="39"/>
-      <c r="AU10" s="39"/>
-      <c r="AV10" s="39"/>
-      <c r="AW10" s="39"/>
-      <c r="AX10" s="39"/>
-      <c r="AY10" s="39"/>
-      <c r="AZ10" s="39"/>
-      <c r="BA10" s="39"/>
-      <c r="BB10" s="39"/>
-      <c r="BC10" s="39"/>
-      <c r="BD10" s="39"/>
-      <c r="BE10" s="39"/>
-      <c r="BF10" s="39"/>
-      <c r="BG10" s="39"/>
-      <c r="BH10" s="39"/>
-      <c r="BI10" s="39"/>
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+      <c r="AE10" s="36"/>
+      <c r="AF10" s="36"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="36"/>
+      <c r="AI10" s="36"/>
+      <c r="AJ10" s="36"/>
+      <c r="AK10" s="36"/>
+      <c r="AL10" s="36"/>
+      <c r="AM10" s="36"/>
+      <c r="AN10" s="36"/>
+      <c r="AO10" s="36"/>
+      <c r="AP10" s="36"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="36"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="36"/>
+      <c r="BE10" s="36"/>
+      <c r="BF10" s="36"/>
+      <c r="BG10" s="36"/>
+      <c r="BH10" s="36"/>
+      <c r="BI10" s="36"/>
     </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="39"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="39"/>
-      <c r="Z11" s="39"/>
-      <c r="AA11" s="39"/>
-      <c r="AB11" s="39"/>
-      <c r="AC11" s="39"/>
-      <c r="AD11" s="39"/>
-      <c r="AE11" s="39"/>
-      <c r="AF11" s="39"/>
-      <c r="AG11" s="39"/>
-      <c r="AH11" s="39"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
-      <c r="AK11" s="39"/>
-      <c r="AL11" s="39"/>
-      <c r="AM11" s="39"/>
-      <c r="AN11" s="39"/>
-      <c r="AO11" s="39"/>
-      <c r="AP11" s="39"/>
-      <c r="AQ11" s="39"/>
-      <c r="AR11" s="39"/>
-      <c r="AS11" s="39"/>
-      <c r="AT11" s="39"/>
-      <c r="AU11" s="39"/>
-      <c r="AV11" s="39"/>
-      <c r="AW11" s="39"/>
-      <c r="AX11" s="39"/>
-      <c r="AY11" s="39"/>
-      <c r="AZ11" s="39"/>
-      <c r="BA11" s="39"/>
-      <c r="BB11" s="39"/>
-      <c r="BC11" s="39"/>
-      <c r="BD11" s="39"/>
-      <c r="BE11" s="39"/>
-      <c r="BF11" s="39"/>
-      <c r="BG11" s="39"/>
-      <c r="BH11" s="39"/>
-      <c r="BI11" s="39"/>
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
+      <c r="AO11" s="36"/>
+      <c r="AP11" s="36"/>
+      <c r="AQ11" s="36"/>
+      <c r="AR11" s="36"/>
+      <c r="AS11" s="36"/>
+      <c r="AT11" s="36"/>
+      <c r="AU11" s="36"/>
+      <c r="AV11" s="36"/>
+      <c r="AW11" s="36"/>
+      <c r="AX11" s="36"/>
+      <c r="AY11" s="36"/>
+      <c r="AZ11" s="36"/>
+      <c r="BA11" s="36"/>
+      <c r="BB11" s="36"/>
+      <c r="BC11" s="36"/>
+      <c r="BD11" s="36"/>
+      <c r="BE11" s="36"/>
+      <c r="BF11" s="36"/>
+      <c r="BG11" s="36"/>
+      <c r="BH11" s="36"/>
+      <c r="BI11" s="36"/>
     </row>
-    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="39"/>
-      <c r="S12" s="39"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
-      <c r="Y12" s="39"/>
-      <c r="Z12" s="39"/>
-      <c r="AA12" s="39"/>
-      <c r="AB12" s="39"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="39"/>
-      <c r="AE12" s="39"/>
-      <c r="AF12" s="39"/>
-      <c r="AG12" s="39"/>
-      <c r="AH12" s="39"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
-      <c r="AK12" s="39"/>
-      <c r="AL12" s="39"/>
-      <c r="AM12" s="39"/>
-      <c r="AN12" s="39"/>
-      <c r="AO12" s="39"/>
-      <c r="AP12" s="39"/>
-      <c r="AQ12" s="39"/>
-      <c r="AR12" s="39"/>
-      <c r="AS12" s="39"/>
-      <c r="AT12" s="39"/>
-      <c r="AU12" s="39"/>
-      <c r="AV12" s="39"/>
-      <c r="AW12" s="39"/>
-      <c r="AX12" s="39"/>
-      <c r="AY12" s="39"/>
-      <c r="AZ12" s="39"/>
-      <c r="BA12" s="39"/>
-      <c r="BB12" s="39"/>
-      <c r="BC12" s="39"/>
-      <c r="BD12" s="39"/>
-      <c r="BE12" s="39"/>
-      <c r="BF12" s="39"/>
-      <c r="BG12" s="39"/>
-      <c r="BH12" s="39"/>
-      <c r="BI12" s="39"/>
+    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+      <c r="AE12" s="36"/>
+      <c r="AF12" s="36"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="36"/>
+      <c r="AI12" s="36"/>
+      <c r="AJ12" s="36"/>
+      <c r="AK12" s="36"/>
+      <c r="AL12" s="36"/>
+      <c r="AM12" s="36"/>
+      <c r="AN12" s="36"/>
+      <c r="AO12" s="36"/>
+      <c r="AP12" s="36"/>
+      <c r="AQ12" s="36"/>
+      <c r="AR12" s="36"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="36"/>
+      <c r="BA12" s="36"/>
+      <c r="BB12" s="36"/>
+      <c r="BC12" s="36"/>
+      <c r="BD12" s="36"/>
+      <c r="BE12" s="36"/>
+      <c r="BF12" s="36"/>
+      <c r="BG12" s="36"/>
+      <c r="BH12" s="36"/>
+      <c r="BI12" s="36"/>
     </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="39"/>
-      <c r="Y13" s="39"/>
-      <c r="Z13" s="39"/>
-      <c r="AA13" s="39"/>
-      <c r="AB13" s="39"/>
-      <c r="AC13" s="39"/>
-      <c r="AD13" s="39"/>
-      <c r="AE13" s="39"/>
-      <c r="AF13" s="39"/>
-      <c r="AG13" s="39"/>
-      <c r="AH13" s="39"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
-      <c r="AK13" s="39"/>
-      <c r="AL13" s="39"/>
-      <c r="AM13" s="39"/>
-      <c r="AN13" s="39"/>
-      <c r="AO13" s="39"/>
-      <c r="AP13" s="39"/>
-      <c r="AQ13" s="39"/>
-      <c r="AR13" s="39"/>
-      <c r="AS13" s="39"/>
-      <c r="AT13" s="39"/>
-      <c r="AU13" s="39"/>
-      <c r="AV13" s="39"/>
-      <c r="AW13" s="39"/>
-      <c r="AX13" s="39"/>
-      <c r="AY13" s="39"/>
-      <c r="AZ13" s="39"/>
-      <c r="BA13" s="39"/>
-      <c r="BB13" s="39"/>
-      <c r="BC13" s="39"/>
-      <c r="BD13" s="39"/>
-      <c r="BE13" s="39"/>
-      <c r="BF13" s="39"/>
-      <c r="BG13" s="39"/>
-      <c r="BH13" s="39"/>
-      <c r="BI13" s="39"/>
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="36"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="36"/>
+      <c r="AK13" s="36"/>
+      <c r="AL13" s="36"/>
+      <c r="AM13" s="36"/>
+      <c r="AN13" s="36"/>
+      <c r="AO13" s="36"/>
+      <c r="AP13" s="36"/>
+      <c r="AQ13" s="36"/>
+      <c r="AR13" s="36"/>
+      <c r="AS13" s="36"/>
+      <c r="AT13" s="36"/>
+      <c r="AU13" s="36"/>
+      <c r="AV13" s="36"/>
+      <c r="AW13" s="36"/>
+      <c r="AX13" s="36"/>
+      <c r="AY13" s="36"/>
+      <c r="AZ13" s="36"/>
+      <c r="BA13" s="36"/>
+      <c r="BB13" s="36"/>
+      <c r="BC13" s="36"/>
+      <c r="BD13" s="36"/>
+      <c r="BE13" s="36"/>
+      <c r="BF13" s="36"/>
+      <c r="BG13" s="36"/>
+      <c r="BH13" s="36"/>
+      <c r="BI13" s="36"/>
     </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="39"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="39"/>
-      <c r="X14" s="39"/>
-      <c r="Y14" s="39"/>
-      <c r="Z14" s="39"/>
-      <c r="AA14" s="39"/>
-      <c r="AB14" s="39"/>
-      <c r="AC14" s="39"/>
-      <c r="AD14" s="39"/>
-      <c r="AE14" s="39"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="39"/>
-      <c r="AH14" s="39"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
-      <c r="AK14" s="39"/>
-      <c r="AL14" s="39"/>
-      <c r="AM14" s="39"/>
-      <c r="AN14" s="39"/>
-      <c r="AO14" s="39"/>
-      <c r="AP14" s="39"/>
-      <c r="AQ14" s="39"/>
-      <c r="AR14" s="39"/>
-      <c r="AS14" s="39"/>
-      <c r="AT14" s="39"/>
-      <c r="AU14" s="39"/>
-      <c r="AV14" s="39"/>
-      <c r="AW14" s="39"/>
-      <c r="AX14" s="39"/>
-      <c r="AY14" s="39"/>
-      <c r="AZ14" s="39"/>
-      <c r="BA14" s="39"/>
-      <c r="BB14" s="39"/>
-      <c r="BC14" s="39"/>
-      <c r="BD14" s="39"/>
-      <c r="BE14" s="39"/>
-      <c r="BF14" s="39"/>
-      <c r="BG14" s="39"/>
-      <c r="BH14" s="39"/>
-      <c r="BI14" s="39"/>
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+      <c r="AE14" s="36"/>
+      <c r="AF14" s="36"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="36"/>
+      <c r="AJ14" s="36"/>
+      <c r="AK14" s="36"/>
+      <c r="AL14" s="36"/>
+      <c r="AM14" s="36"/>
+      <c r="AN14" s="36"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
+      <c r="AQ14" s="36"/>
+      <c r="AR14" s="36"/>
+      <c r="AS14" s="36"/>
+      <c r="AT14" s="36"/>
+      <c r="AU14" s="36"/>
+      <c r="AV14" s="36"/>
+      <c r="AW14" s="36"/>
+      <c r="AX14" s="36"/>
+      <c r="AY14" s="36"/>
+      <c r="AZ14" s="36"/>
+      <c r="BA14" s="36"/>
+      <c r="BB14" s="36"/>
+      <c r="BC14" s="36"/>
+      <c r="BD14" s="36"/>
+      <c r="BE14" s="36"/>
+      <c r="BF14" s="36"/>
+      <c r="BG14" s="36"/>
+      <c r="BH14" s="36"/>
+      <c r="BI14" s="36"/>
     </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="42"/>
-      <c r="BG16" s="42"/>
-      <c r="BH16" s="42"/>
-      <c r="BI16" s="42"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="37"/>
+      <c r="AE16" s="37"/>
+      <c r="AF16" s="37"/>
+      <c r="AG16" s="37"/>
+      <c r="AH16" s="37"/>
+      <c r="AI16" s="37"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="37"/>
+      <c r="AL16" s="37"/>
+      <c r="AM16" s="37"/>
+      <c r="AN16" s="37"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
+      <c r="AQ16" s="37"/>
+      <c r="AR16" s="37"/>
+      <c r="AS16" s="37"/>
+      <c r="AT16" s="37"/>
+      <c r="AU16" s="37"/>
+      <c r="AV16" s="37"/>
+      <c r="AW16" s="37"/>
+      <c r="AX16" s="37"/>
+      <c r="AY16" s="37"/>
+      <c r="AZ16" s="37"/>
+      <c r="BA16" s="37"/>
+      <c r="BB16" s="37"/>
+      <c r="BC16" s="37"/>
+      <c r="BD16" s="37"/>
+      <c r="BE16" s="37"/>
+      <c r="BF16" s="37"/>
+      <c r="BG16" s="37"/>
+      <c r="BH16" s="37"/>
+      <c r="BI16" s="37"/>
     </row>
-    <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+    <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="39"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="39"/>
-      <c r="Y17" s="39"/>
-      <c r="Z17" s="39"/>
-      <c r="AA17" s="39"/>
-      <c r="AB17" s="39"/>
-      <c r="AC17" s="39"/>
-      <c r="AD17" s="39"/>
-      <c r="AE17" s="39"/>
-      <c r="AF17" s="39"/>
-      <c r="AG17" s="39"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
-      <c r="AK17" s="39"/>
-      <c r="AL17" s="39"/>
-      <c r="AM17" s="39"/>
-      <c r="AN17" s="39"/>
-      <c r="AO17" s="39"/>
-      <c r="AP17" s="39"/>
-      <c r="AQ17" s="39"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="39"/>
-      <c r="AT17" s="39"/>
-      <c r="AU17" s="39"/>
-      <c r="AV17" s="39"/>
-      <c r="AW17" s="39"/>
-      <c r="AX17" s="39"/>
-      <c r="AY17" s="39"/>
-      <c r="AZ17" s="39"/>
-      <c r="BA17" s="39"/>
-      <c r="BB17" s="39"/>
-      <c r="BC17" s="39"/>
-      <c r="BD17" s="39"/>
-      <c r="BE17" s="39"/>
-      <c r="BF17" s="39"/>
-      <c r="BG17" s="39"/>
-      <c r="BH17" s="39"/>
-      <c r="BI17" s="39"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="36"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="36"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="36"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="36"/>
     </row>
-    <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="39"/>
-      <c r="S18" s="39"/>
-      <c r="T18" s="39"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="39"/>
-      <c r="X18" s="39"/>
-      <c r="Y18" s="39"/>
-      <c r="Z18" s="39"/>
-      <c r="AA18" s="39"/>
-      <c r="AB18" s="39"/>
-      <c r="AC18" s="39"/>
-      <c r="AD18" s="39"/>
-      <c r="AE18" s="39"/>
-      <c r="AF18" s="39"/>
-      <c r="AG18" s="39"/>
-      <c r="AH18" s="39"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
-      <c r="AK18" s="39"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="39"/>
-      <c r="AN18" s="39"/>
-      <c r="AO18" s="39"/>
-      <c r="AP18" s="39"/>
-      <c r="AQ18" s="39"/>
-      <c r="AR18" s="39"/>
-      <c r="AS18" s="39"/>
-      <c r="AT18" s="39"/>
-      <c r="AU18" s="39"/>
-      <c r="AV18" s="39"/>
-      <c r="AW18" s="39"/>
-      <c r="AX18" s="39"/>
-      <c r="AY18" s="39"/>
-      <c r="AZ18" s="39"/>
-      <c r="BA18" s="39"/>
-      <c r="BB18" s="39"/>
-      <c r="BC18" s="39"/>
-      <c r="BD18" s="39"/>
-      <c r="BE18" s="39"/>
-      <c r="BF18" s="39"/>
-      <c r="BG18" s="39"/>
-      <c r="BH18" s="39"/>
-      <c r="BI18" s="39"/>
+    <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+      <c r="AM18" s="36"/>
+      <c r="AN18" s="36"/>
+      <c r="AO18" s="36"/>
+      <c r="AP18" s="36"/>
+      <c r="AQ18" s="36"/>
+      <c r="AR18" s="36"/>
+      <c r="AS18" s="36"/>
+      <c r="AT18" s="36"/>
+      <c r="AU18" s="36"/>
+      <c r="AV18" s="36"/>
+      <c r="AW18" s="36"/>
+      <c r="AX18" s="36"/>
+      <c r="AY18" s="36"/>
+      <c r="AZ18" s="36"/>
+      <c r="BA18" s="36"/>
+      <c r="BB18" s="36"/>
+      <c r="BC18" s="36"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="36"/>
+      <c r="BG18" s="36"/>
+      <c r="BH18" s="36"/>
+      <c r="BI18" s="36"/>
     </row>
-    <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="39"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="39"/>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="39"/>
-      <c r="AB19" s="39"/>
-      <c r="AC19" s="39"/>
-      <c r="AD19" s="39"/>
-      <c r="AE19" s="39"/>
-      <c r="AF19" s="39"/>
-      <c r="AG19" s="39"/>
-      <c r="AH19" s="39"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
-      <c r="AK19" s="39"/>
-      <c r="AL19" s="39"/>
-      <c r="AM19" s="39"/>
-      <c r="AN19" s="39"/>
-      <c r="AO19" s="39"/>
-      <c r="AP19" s="39"/>
-      <c r="AQ19" s="39"/>
-      <c r="AR19" s="39"/>
-      <c r="AS19" s="39"/>
-      <c r="AT19" s="39"/>
-      <c r="AU19" s="39"/>
-      <c r="AV19" s="39"/>
-      <c r="AW19" s="39"/>
-      <c r="AX19" s="39"/>
-      <c r="AY19" s="39"/>
-      <c r="AZ19" s="39"/>
-      <c r="BA19" s="39"/>
-      <c r="BB19" s="39"/>
-      <c r="BC19" s="39"/>
-      <c r="BD19" s="39"/>
-      <c r="BE19" s="39"/>
-      <c r="BF19" s="39"/>
-      <c r="BG19" s="39"/>
-      <c r="BH19" s="39"/>
-      <c r="BI19" s="39"/>
+    <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="36"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+      <c r="AM19" s="36"/>
+      <c r="AN19" s="36"/>
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="36"/>
+      <c r="AQ19" s="36"/>
+      <c r="AR19" s="36"/>
+      <c r="AS19" s="36"/>
+      <c r="AT19" s="36"/>
+      <c r="AU19" s="36"/>
+      <c r="AV19" s="36"/>
+      <c r="AW19" s="36"/>
+      <c r="AX19" s="36"/>
+      <c r="AY19" s="36"/>
+      <c r="AZ19" s="36"/>
+      <c r="BA19" s="36"/>
+      <c r="BB19" s="36"/>
+      <c r="BC19" s="36"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="36"/>
+      <c r="BG19" s="36"/>
+      <c r="BH19" s="36"/>
+      <c r="BI19" s="36"/>
     </row>
-    <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="39"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="39"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="39"/>
-      <c r="X20" s="39"/>
-      <c r="Y20" s="39"/>
-      <c r="Z20" s="39"/>
-      <c r="AA20" s="39"/>
-      <c r="AB20" s="39"/>
-      <c r="AC20" s="39"/>
-      <c r="AD20" s="39"/>
-      <c r="AE20" s="39"/>
-      <c r="AF20" s="39"/>
-      <c r="AG20" s="39"/>
-      <c r="AH20" s="39"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
-      <c r="AK20" s="39"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="39"/>
-      <c r="AN20" s="39"/>
-      <c r="AO20" s="39"/>
-      <c r="AP20" s="39"/>
-      <c r="AQ20" s="39"/>
-      <c r="AR20" s="39"/>
-      <c r="AS20" s="39"/>
-      <c r="AT20" s="39"/>
-      <c r="AU20" s="39"/>
-      <c r="AV20" s="39"/>
-      <c r="AW20" s="39"/>
-      <c r="AX20" s="39"/>
-      <c r="AY20" s="39"/>
-      <c r="AZ20" s="39"/>
-      <c r="BA20" s="39"/>
-      <c r="BB20" s="39"/>
-      <c r="BC20" s="39"/>
-      <c r="BD20" s="39"/>
-      <c r="BE20" s="39"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="39"/>
-      <c r="BH20" s="39"/>
-      <c r="BI20" s="39"/>
+    <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+      <c r="AM20" s="36"/>
+      <c r="AN20" s="36"/>
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="36"/>
+      <c r="AQ20" s="36"/>
+      <c r="AR20" s="36"/>
+      <c r="AS20" s="36"/>
+      <c r="AT20" s="36"/>
+      <c r="AU20" s="36"/>
+      <c r="AV20" s="36"/>
+      <c r="AW20" s="36"/>
+      <c r="AX20" s="36"/>
+      <c r="AY20" s="36"/>
+      <c r="AZ20" s="36"/>
+      <c r="BA20" s="36"/>
+      <c r="BB20" s="36"/>
+      <c r="BC20" s="36"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="36"/>
+      <c r="BG20" s="36"/>
+      <c r="BH20" s="36"/>
+      <c r="BI20" s="36"/>
     </row>
-    <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="39"/>
-      <c r="S21" s="39"/>
-      <c r="T21" s="39"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="39"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="39"/>
-      <c r="AN21" s="39"/>
-      <c r="AO21" s="39"/>
-      <c r="AP21" s="39"/>
-      <c r="AQ21" s="39"/>
-      <c r="AR21" s="39"/>
-      <c r="AS21" s="39"/>
-      <c r="AT21" s="39"/>
-      <c r="AU21" s="39"/>
-      <c r="AV21" s="39"/>
-      <c r="AW21" s="39"/>
-      <c r="AX21" s="39"/>
-      <c r="AY21" s="39"/>
-      <c r="AZ21" s="39"/>
-      <c r="BA21" s="39"/>
-      <c r="BB21" s="39"/>
-      <c r="BC21" s="39"/>
-      <c r="BD21" s="39"/>
-      <c r="BE21" s="39"/>
-      <c r="BF21" s="39"/>
-      <c r="BG21" s="39"/>
-      <c r="BH21" s="39"/>
-      <c r="BI21" s="39"/>
+    <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+      <c r="AM21" s="36"/>
+      <c r="AN21" s="36"/>
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="36"/>
+      <c r="AQ21" s="36"/>
+      <c r="AR21" s="36"/>
+      <c r="AS21" s="36"/>
+      <c r="AT21" s="36"/>
+      <c r="AU21" s="36"/>
+      <c r="AV21" s="36"/>
+      <c r="AW21" s="36"/>
+      <c r="AX21" s="36"/>
+      <c r="AY21" s="36"/>
+      <c r="AZ21" s="36"/>
+      <c r="BA21" s="36"/>
+      <c r="BB21" s="36"/>
+      <c r="BC21" s="36"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="36"/>
+      <c r="BG21" s="36"/>
+      <c r="BH21" s="36"/>
+      <c r="BI21" s="36"/>
     </row>
-    <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="39"/>
-      <c r="W22" s="39"/>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
-      <c r="AK22" s="39"/>
-      <c r="AL22" s="39"/>
-      <c r="AM22" s="39"/>
-      <c r="AN22" s="39"/>
-      <c r="AO22" s="39"/>
-      <c r="AP22" s="39"/>
-      <c r="AQ22" s="39"/>
-      <c r="AR22" s="39"/>
-      <c r="AS22" s="39"/>
-      <c r="AT22" s="39"/>
-      <c r="AU22" s="39"/>
-      <c r="AV22" s="39"/>
-      <c r="AW22" s="39"/>
-      <c r="AX22" s="39"/>
-      <c r="AY22" s="39"/>
-      <c r="AZ22" s="39"/>
-      <c r="BA22" s="39"/>
-      <c r="BB22" s="39"/>
-      <c r="BC22" s="39"/>
-      <c r="BD22" s="39"/>
-      <c r="BE22" s="39"/>
-      <c r="BF22" s="39"/>
-      <c r="BG22" s="39"/>
-      <c r="BH22" s="39"/>
-      <c r="BI22" s="39"/>
+    <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="36"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+      <c r="AM22" s="36"/>
+      <c r="AN22" s="36"/>
+      <c r="AO22" s="36"/>
+      <c r="AP22" s="36"/>
+      <c r="AQ22" s="36"/>
+      <c r="AR22" s="36"/>
+      <c r="AS22" s="36"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="36"/>
+      <c r="AV22" s="36"/>
+      <c r="AW22" s="36"/>
+      <c r="AX22" s="36"/>
+      <c r="AY22" s="36"/>
+      <c r="AZ22" s="36"/>
+      <c r="BA22" s="36"/>
+      <c r="BB22" s="36"/>
+      <c r="BC22" s="36"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22" s="36"/>
+      <c r="BF22" s="36"/>
+      <c r="BG22" s="36"/>
+      <c r="BH22" s="36"/>
+      <c r="BI22" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="AO12:BI12"/>
-    <mergeCell ref="A17:BI22"/>
-    <mergeCell ref="A16:BI16"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="K14:T14"/>
-    <mergeCell ref="U14:AD14"/>
-    <mergeCell ref="AE14:AN14"/>
-    <mergeCell ref="AO14:BI14"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="AT1:AZ1"/>
+    <mergeCell ref="BA1:BC1"/>
+    <mergeCell ref="BD1:BI1"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:AC6"/>
+    <mergeCell ref="AD6:AI6"/>
+    <mergeCell ref="AJ6:BI6"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
     <mergeCell ref="AE10:AN10"/>
     <mergeCell ref="AO10:BI10"/>
     <mergeCell ref="A13:J13"/>
@@ -2551,44 +2643,14 @@
     <mergeCell ref="K12:T12"/>
     <mergeCell ref="U12:AD12"/>
     <mergeCell ref="AE12:AN12"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:AC6"/>
-    <mergeCell ref="AD6:AI6"/>
-    <mergeCell ref="AJ6:BI6"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="AT1:AZ1"/>
-    <mergeCell ref="BA1:BC1"/>
-    <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="AO12:BI12"/>
+    <mergeCell ref="A17:BI22"/>
+    <mergeCell ref="A16:BI16"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="K14:T14"/>
+    <mergeCell ref="U14:AD14"/>
+    <mergeCell ref="AE14:AN14"/>
+    <mergeCell ref="AO14:BI14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -2599,19 +2661,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IX54"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="2"/>
+    <col min="1" max="16384" width="2.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2626,73 +2688,73 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37" t="str">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="41" t="str">
         <f>クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="36" t="s">
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="37">
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="41">
         <f>クラス仕様!AE1</f>
         <v>0</v>
       </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="36" t="s">
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="37" t="s">
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="36" t="s">
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="38">
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="39">
         <v>45000</v>
       </c>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2891,7 +2953,7 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -2904,66 +2966,66 @@
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="36" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37">
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="41">
         <f>クラス仕様!G5</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="36" t="s">
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3162,72 +3224,72 @@
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
     </row>
-    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3426,72 +3488,72 @@
       <c r="IW4" s="1"/>
       <c r="IX4" s="1"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -3690,7 +3752,7 @@
       <c r="IW5" s="1"/>
       <c r="IX5" s="1"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3950,7 +4012,7 @@
       <c r="IW6" s="1"/>
       <c r="IX6" s="1"/>
     </row>
-    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>22</v>
       </c>
@@ -4218,7 +4280,7 @@
       <c r="IW7" s="1"/>
       <c r="IX7" s="1"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>24</v>
       </c>
@@ -4486,7 +4548,7 @@
       <c r="IW8" s="1"/>
       <c r="IX8" s="1"/>
     </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>24</v>
       </c>
@@ -4754,7 +4816,7 @@
       <c r="IW9" s="1"/>
       <c r="IX9" s="1"/>
     </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -5022,7 +5084,7 @@
       <c r="IW10" s="1"/>
       <c r="IX10" s="1"/>
     </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>29</v>
       </c>
@@ -5290,7 +5352,7 @@
       <c r="IW11" s="1"/>
       <c r="IX11" s="1"/>
     </row>
-    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5550,7 +5612,7 @@
       <c r="IW12" s="1"/>
       <c r="IX12" s="1"/>
     </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>34</v>
       </c>
@@ -5816,7 +5878,7 @@
       <c r="IW13" s="1"/>
       <c r="IX13" s="1"/>
     </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5832,7 +5894,9 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
+      <c r="P14" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="Q14" s="21"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
@@ -6076,7 +6140,7 @@
       <c r="IW14" s="1"/>
       <c r="IX14" s="1"/>
     </row>
-    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="9"/>
@@ -6335,7 +6399,7 @@
       <c r="IW15" s="1"/>
       <c r="IX15" s="1"/>
     </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6595,7 +6659,7 @@
       <c r="IW16" s="1"/>
       <c r="IX16" s="1"/>
     </row>
-    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -6853,7 +6917,7 @@
       <c r="IW17" s="1"/>
       <c r="IX17" s="1"/>
     </row>
-    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -7111,7 +7175,7 @@
       <c r="IW18" s="1"/>
       <c r="IX18" s="1"/>
     </row>
-    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -7371,7 +7435,7 @@
       <c r="IW19" s="1"/>
       <c r="IX19" s="1"/>
     </row>
-    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -7631,7 +7695,7 @@
       <c r="IW20" s="1"/>
       <c r="IX20" s="1"/>
     </row>
-    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -7891,7 +7955,7 @@
       <c r="IW21" s="1"/>
       <c r="IX21" s="1"/>
     </row>
-    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -8151,7 +8215,7 @@
       <c r="IW22" s="1"/>
       <c r="IX22" s="1"/>
     </row>
-    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -8411,7 +8475,7 @@
       <c r="IW23" s="1"/>
       <c r="IX23" s="1"/>
     </row>
-    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -8670,7 +8734,7 @@
       <c r="IW24" s="1"/>
       <c r="IX24" s="1"/>
     </row>
-    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -8929,7 +8993,7 @@
       <c r="IW25" s="1"/>
       <c r="IX25" s="1"/>
     </row>
-    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -9189,7 +9253,7 @@
       <c r="IW26" s="1"/>
       <c r="IX26" s="1"/>
     </row>
-    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -9449,7 +9513,7 @@
       <c r="IW27" s="1"/>
       <c r="IX27" s="1"/>
     </row>
-    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -9709,7 +9773,7 @@
       <c r="IW28" s="1"/>
       <c r="IX28" s="1"/>
     </row>
-    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -9969,7 +10033,7 @@
       <c r="IW29" s="1"/>
       <c r="IX29" s="1"/>
     </row>
-    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -10229,7 +10293,7 @@
       <c r="IW30" s="1"/>
       <c r="IX30" s="1"/>
     </row>
-    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -10489,7 +10553,7 @@
       <c r="IW31" s="1"/>
       <c r="IX31" s="1"/>
     </row>
-    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -10749,7 +10813,7 @@
       <c r="IW32" s="1"/>
       <c r="IX32" s="1"/>
     </row>
-    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -11009,7 +11073,7 @@
       <c r="IW33" s="1"/>
       <c r="IX33" s="1"/>
     </row>
-    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -11269,7 +11333,7 @@
       <c r="IW34" s="1"/>
       <c r="IX34" s="1"/>
     </row>
-    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -11529,7 +11593,7 @@
       <c r="IW35" s="1"/>
       <c r="IX35" s="1"/>
     </row>
-    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -11789,7 +11853,7 @@
       <c r="IW36" s="1"/>
       <c r="IX36" s="1"/>
     </row>
-    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -12049,7 +12113,7 @@
       <c r="IW37" s="1"/>
       <c r="IX37" s="1"/>
     </row>
-    <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -12309,7 +12373,7 @@
       <c r="IW38" s="1"/>
       <c r="IX38" s="1"/>
     </row>
-    <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -12569,7 +12633,7 @@
       <c r="IW39" s="1"/>
       <c r="IX39" s="1"/>
     </row>
-    <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -12829,7 +12893,7 @@
       <c r="IW40" s="1"/>
       <c r="IX40" s="1"/>
     </row>
-    <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -13089,7 +13153,7 @@
       <c r="IW41" s="1"/>
       <c r="IX41" s="1"/>
     </row>
-    <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -13349,7 +13413,7 @@
       <c r="IW42" s="1"/>
       <c r="IX42" s="1"/>
     </row>
-    <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -13609,7 +13673,7 @@
       <c r="IW43" s="1"/>
       <c r="IX43" s="1"/>
     </row>
-    <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -13869,7 +13933,7 @@
       <c r="IW44" s="1"/>
       <c r="IX44" s="1"/>
     </row>
-    <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -14129,7 +14193,7 @@
       <c r="IW45" s="1"/>
       <c r="IX45" s="1"/>
     </row>
-    <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -14389,7 +14453,7 @@
       <c r="IW46" s="1"/>
       <c r="IX46" s="1"/>
     </row>
-    <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -14649,7 +14713,7 @@
       <c r="IW47" s="1"/>
       <c r="IX47" s="1"/>
     </row>
-    <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -14909,7 +14973,7 @@
       <c r="IW48" s="1"/>
       <c r="IX48" s="1"/>
     </row>
-    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -15169,7 +15233,7 @@
       <c r="IW49" s="1"/>
       <c r="IX49" s="1"/>
     </row>
-    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -15429,7 +15493,7 @@
       <c r="IW50" s="1"/>
       <c r="IX50" s="1"/>
     </row>
-    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -15689,7 +15753,7 @@
       <c r="IW51" s="1"/>
       <c r="IX51" s="1"/>
     </row>
-    <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -15948,7 +16012,7 @@
       <c r="IW52" s="1"/>
       <c r="IX52" s="1"/>
     </row>
-    <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -16208,7 +16272,7 @@
       <c r="IW53" s="1"/>
       <c r="IX53" s="1"/>
     </row>
-    <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -16470,6 +16534,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="M2:Q2"/>
@@ -16486,38 +16578,10 @@
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
     <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16529,19 +16593,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IX54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="M1" sqref="M1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="2"/>
+    <col min="1" max="16384" width="2.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -16556,73 +16620,73 @@
       <c r="J1" s="40"/>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="37" t="str">
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="41" t="str">
         <f>クラス仕様!R1</f>
         <v>商品購入</v>
       </c>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="36" t="s">
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="41"/>
+      <c r="AB1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="37">
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="41">
         <f>クラス仕様!AE1</f>
         <v>0</v>
       </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="37"/>
-      <c r="AI1" s="37"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="37"/>
-      <c r="AL1" s="37"/>
-      <c r="AM1" s="37"/>
-      <c r="AN1" s="37"/>
-      <c r="AO1" s="37"/>
-      <c r="AP1" s="37"/>
-      <c r="AQ1" s="36" t="s">
+      <c r="AF1" s="41"/>
+      <c r="AG1" s="41"/>
+      <c r="AH1" s="41"/>
+      <c r="AI1" s="41"/>
+      <c r="AJ1" s="41"/>
+      <c r="AK1" s="41"/>
+      <c r="AL1" s="41"/>
+      <c r="AM1" s="41"/>
+      <c r="AN1" s="41"/>
+      <c r="AO1" s="41"/>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="37" t="s">
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="37"/>
-      <c r="AV1" s="37"/>
-      <c r="AW1" s="37"/>
-      <c r="AX1" s="37"/>
-      <c r="AY1" s="37"/>
-      <c r="AZ1" s="37"/>
-      <c r="BA1" s="36" t="s">
+      <c r="AU1" s="41"/>
+      <c r="AV1" s="41"/>
+      <c r="AW1" s="41"/>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="41"/>
+      <c r="AZ1" s="41"/>
+      <c r="BA1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="38">
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="39">
         <v>45000</v>
       </c>
-      <c r="BE1" s="38"/>
-      <c r="BF1" s="38"/>
-      <c r="BG1" s="38"/>
-      <c r="BH1" s="38"/>
-      <c r="BI1" s="38"/>
+      <c r="BE1" s="39"/>
+      <c r="BF1" s="39"/>
+      <c r="BG1" s="39"/>
+      <c r="BH1" s="39"/>
+      <c r="BI1" s="39"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -16821,7 +16885,7 @@
       <c r="IW1" s="1"/>
       <c r="IX1" s="1"/>
     </row>
-    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -16834,66 +16898,66 @@
       <c r="J2" s="40"/>
       <c r="K2" s="40"/>
       <c r="L2" s="40"/>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="36" t="s">
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="43"/>
+      <c r="Z2" s="43"/>
+      <c r="AA2" s="43"/>
+      <c r="AB2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="37">
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="41">
         <f>クラス仕様!G5</f>
         <v>0</v>
       </c>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="37"/>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="36" t="s">
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="41"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="36"/>
-      <c r="AS2" s="36"/>
-      <c r="AT2" s="37"/>
-      <c r="AU2" s="37"/>
-      <c r="AV2" s="37"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="36" t="s">
+      <c r="AR2" s="42"/>
+      <c r="AS2" s="42"/>
+      <c r="AT2" s="41"/>
+      <c r="AU2" s="41"/>
+      <c r="AV2" s="41"/>
+      <c r="AW2" s="41"/>
+      <c r="AX2" s="41"/>
+      <c r="AY2" s="41"/>
+      <c r="AZ2" s="41"/>
+      <c r="BA2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="BB2" s="36"/>
-      <c r="BC2" s="36"/>
-      <c r="BD2" s="38"/>
-      <c r="BE2" s="38"/>
-      <c r="BF2" s="38"/>
-      <c r="BG2" s="38"/>
-      <c r="BH2" s="38"/>
-      <c r="BI2" s="38"/>
+      <c r="BB2" s="42"/>
+      <c r="BC2" s="42"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -17092,72 +17156,72 @@
       <c r="IW2" s="1"/>
       <c r="IX2" s="1"/>
     </row>
-    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="43"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="43"/>
-      <c r="AC4" s="43"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="43"/>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="43"/>
-      <c r="AH4" s="43"/>
-      <c r="AI4" s="43"/>
-      <c r="AJ4" s="43"/>
-      <c r="AK4" s="43"/>
-      <c r="AL4" s="43"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
-      <c r="AV4" s="43"/>
-      <c r="AW4" s="43"/>
-      <c r="AX4" s="43"/>
-      <c r="AY4" s="43"/>
-      <c r="AZ4" s="43"/>
-      <c r="BA4" s="43"/>
-      <c r="BB4" s="43"/>
-      <c r="BC4" s="43"/>
-      <c r="BD4" s="43"/>
-      <c r="BE4" s="43"/>
-      <c r="BF4" s="43"/>
-      <c r="BG4" s="43"/>
-      <c r="BH4" s="43"/>
-      <c r="BI4" s="43"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="38"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="38"/>
+      <c r="AU4" s="38"/>
+      <c r="AV4" s="38"/>
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -17356,72 +17420,72 @@
       <c r="IW4" s="1"/>
       <c r="IX4" s="1"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="43"/>
-      <c r="AF5" s="43"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="43"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="43"/>
-      <c r="AL5" s="43"/>
-      <c r="AM5" s="43"/>
-      <c r="AN5" s="43"/>
-      <c r="AO5" s="43"/>
-      <c r="AP5" s="43"/>
-      <c r="AQ5" s="43"/>
-      <c r="AR5" s="43"/>
-      <c r="AS5" s="43"/>
-      <c r="AT5" s="43"/>
-      <c r="AU5" s="43"/>
-      <c r="AV5" s="43"/>
-      <c r="AW5" s="43"/>
-      <c r="AX5" s="43"/>
-      <c r="AY5" s="43"/>
-      <c r="AZ5" s="43"/>
-      <c r="BA5" s="43"/>
-      <c r="BB5" s="43"/>
-      <c r="BC5" s="43"/>
-      <c r="BD5" s="43"/>
-      <c r="BE5" s="43"/>
-      <c r="BF5" s="43"/>
-      <c r="BG5" s="43"/>
-      <c r="BH5" s="43"/>
-      <c r="BI5" s="43"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="38"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="38"/>
+      <c r="AI5" s="38"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="38"/>
+      <c r="AL5" s="38"/>
+      <c r="AM5" s="38"/>
+      <c r="AN5" s="38"/>
+      <c r="AO5" s="38"/>
+      <c r="AP5" s="38"/>
+      <c r="AQ5" s="38"/>
+      <c r="AR5" s="38"/>
+      <c r="AS5" s="38"/>
+      <c r="AT5" s="38"/>
+      <c r="AU5" s="38"/>
+      <c r="AV5" s="38"/>
+      <c r="AW5" s="38"/>
+      <c r="AX5" s="38"/>
+      <c r="AY5" s="38"/>
+      <c r="AZ5" s="38"/>
+      <c r="BA5" s="38"/>
+      <c r="BB5" s="38"/>
+      <c r="BC5" s="38"/>
+      <c r="BD5" s="38"/>
+      <c r="BE5" s="38"/>
+      <c r="BF5" s="38"/>
+      <c r="BG5" s="38"/>
+      <c r="BH5" s="38"/>
+      <c r="BI5" s="38"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -17620,7 +17684,7 @@
       <c r="IW5" s="1"/>
       <c r="IX5" s="1"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -17880,7 +17944,7 @@
       <c r="IW6" s="1"/>
       <c r="IX6" s="1"/>
     </row>
-    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="46" t="s">
         <v>22</v>
       </c>
@@ -18148,7 +18212,7 @@
       <c r="IW7" s="1"/>
       <c r="IX7" s="1"/>
     </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>24</v>
       </c>
@@ -18416,7 +18480,7 @@
       <c r="IW8" s="1"/>
       <c r="IX8" s="1"/>
     </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
         <v>24</v>
       </c>
@@ -18684,7 +18748,7 @@
       <c r="IW9" s="1"/>
       <c r="IX9" s="1"/>
     </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>29</v>
       </c>
@@ -18952,7 +19016,7 @@
       <c r="IW10" s="1"/>
       <c r="IX10" s="1"/>
     </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>29</v>
       </c>
@@ -19220,7 +19284,7 @@
       <c r="IW11" s="1"/>
       <c r="IX11" s="1"/>
     </row>
-    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -19480,7 +19544,7 @@
       <c r="IW12" s="1"/>
       <c r="IX12" s="1"/>
     </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>34</v>
       </c>
@@ -19746,7 +19810,7 @@
       <c r="IW13" s="1"/>
       <c r="IX13" s="1"/>
     </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -20006,7 +20070,7 @@
       <c r="IW14" s="1"/>
       <c r="IX14" s="1"/>
     </row>
-    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="D15" s="9"/>
@@ -20265,7 +20329,7 @@
       <c r="IW15" s="1"/>
       <c r="IX15" s="1"/>
     </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -20525,7 +20589,7 @@
       <c r="IW16" s="1"/>
       <c r="IX16" s="1"/>
     </row>
-    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -20783,7 +20847,7 @@
       <c r="IW17" s="1"/>
       <c r="IX17" s="1"/>
     </row>
-    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -21041,7 +21105,7 @@
       <c r="IW18" s="1"/>
       <c r="IX18" s="1"/>
     </row>
-    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -21301,7 +21365,7 @@
       <c r="IW19" s="1"/>
       <c r="IX19" s="1"/>
     </row>
-    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -21561,7 +21625,7 @@
       <c r="IW20" s="1"/>
       <c r="IX20" s="1"/>
     </row>
-    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -21821,7 +21885,7 @@
       <c r="IW21" s="1"/>
       <c r="IX21" s="1"/>
     </row>
-    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -22081,7 +22145,7 @@
       <c r="IW22" s="1"/>
       <c r="IX22" s="1"/>
     </row>
-    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -22341,7 +22405,7 @@
       <c r="IW23" s="1"/>
       <c r="IX23" s="1"/>
     </row>
-    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -22600,7 +22664,7 @@
       <c r="IW24" s="1"/>
       <c r="IX24" s="1"/>
     </row>
-    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -22859,7 +22923,7 @@
       <c r="IW25" s="1"/>
       <c r="IX25" s="1"/>
     </row>
-    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -23119,7 +23183,7 @@
       <c r="IW26" s="1"/>
       <c r="IX26" s="1"/>
     </row>
-    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -23379,7 +23443,7 @@
       <c r="IW27" s="1"/>
       <c r="IX27" s="1"/>
     </row>
-    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -23639,7 +23703,7 @@
       <c r="IW28" s="1"/>
       <c r="IX28" s="1"/>
     </row>
-    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -23899,7 +23963,7 @@
       <c r="IW29" s="1"/>
       <c r="IX29" s="1"/>
     </row>
-    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -24159,7 +24223,7 @@
       <c r="IW30" s="1"/>
       <c r="IX30" s="1"/>
     </row>
-    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -24419,7 +24483,7 @@
       <c r="IW31" s="1"/>
       <c r="IX31" s="1"/>
     </row>
-    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -24679,7 +24743,7 @@
       <c r="IW32" s="1"/>
       <c r="IX32" s="1"/>
     </row>
-    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -24939,7 +25003,7 @@
       <c r="IW33" s="1"/>
       <c r="IX33" s="1"/>
     </row>
-    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -25199,7 +25263,7 @@
       <c r="IW34" s="1"/>
       <c r="IX34" s="1"/>
     </row>
-    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -25459,7 +25523,7 @@
       <c r="IW35" s="1"/>
       <c r="IX35" s="1"/>
     </row>
-    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -25719,7 +25783,7 @@
       <c r="IW36" s="1"/>
       <c r="IX36" s="1"/>
     </row>
-    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -25979,7 +26043,7 @@
       <c r="IW37" s="1"/>
       <c r="IX37" s="1"/>
     </row>
-    <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -26239,7 +26303,7 @@
       <c r="IW38" s="1"/>
       <c r="IX38" s="1"/>
     </row>
-    <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -26499,7 +26563,7 @@
       <c r="IW39" s="1"/>
       <c r="IX39" s="1"/>
     </row>
-    <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -26759,7 +26823,7 @@
       <c r="IW40" s="1"/>
       <c r="IX40" s="1"/>
     </row>
-    <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -27019,7 +27083,7 @@
       <c r="IW41" s="1"/>
       <c r="IX41" s="1"/>
     </row>
-    <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -27279,7 +27343,7 @@
       <c r="IW42" s="1"/>
       <c r="IX42" s="1"/>
     </row>
-    <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -27539,7 +27603,7 @@
       <c r="IW43" s="1"/>
       <c r="IX43" s="1"/>
     </row>
-    <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -27799,7 +27863,7 @@
       <c r="IW44" s="1"/>
       <c r="IX44" s="1"/>
     </row>
-    <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -28059,7 +28123,7 @@
       <c r="IW45" s="1"/>
       <c r="IX45" s="1"/>
     </row>
-    <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -28319,7 +28383,7 @@
       <c r="IW46" s="1"/>
       <c r="IX46" s="1"/>
     </row>
-    <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -28579,7 +28643,7 @@
       <c r="IW47" s="1"/>
       <c r="IX47" s="1"/>
     </row>
-    <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -28839,7 +28903,7 @@
       <c r="IW48" s="1"/>
       <c r="IX48" s="1"/>
     </row>
-    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -29099,7 +29163,7 @@
       <c r="IW49" s="1"/>
       <c r="IX49" s="1"/>
     </row>
-    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -29359,7 +29423,7 @@
       <c r="IW50" s="1"/>
       <c r="IX50" s="1"/>
     </row>
-    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -29619,7 +29683,7 @@
       <c r="IW51" s="1"/>
       <c r="IX51" s="1"/>
     </row>
-    <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -29878,7 +29942,7 @@
       <c r="IW52" s="1"/>
       <c r="IX52" s="1"/>
     </row>
-    <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="14"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15"/>
@@ -30138,7 +30202,7 @@
       <c r="IW53" s="1"/>
       <c r="IX53" s="1"/>
     </row>
-    <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -30400,29 +30464,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
     <mergeCell ref="A5:F5"/>
@@ -30439,15 +30485,33 @@
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
     <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="P13:AS13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A8:A11" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"引数,戻り値,例外,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -30459,9 +30523,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30597,19 +30664,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -30633,9 +30696,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/MainServlet_クラス仕様書.xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/商品検索機能/MainServlet_クラス仕様書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A3CEC-BB48-443E-8185-6CC2D0E39CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D799397-CE4B-4963-AB62-1F867CD428FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="960" windowWidth="17280" windowHeight="9408" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2232" windowWidth="21660" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="メソッド仕様（doPost）" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（doGet）'!$A$1:$BI$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'メソッド仕様（doGet）'!$A$1:$BI$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'メソッド仕様（doPost）'!$A$1:$BI$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>クラス仕様書</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>作成者</t>
-  </si>
-  <si>
-    <t>幕張　太郎</t>
   </si>
   <si>
     <t>作成日</t>
@@ -166,10 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>WebServletアノテーションの引数は、自身のクラス名にすること。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>商品購入</t>
     <rPh sb="0" eb="4">
       <t>ショウヒンコウニュウ</t>
@@ -181,21 +174,143 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>イベントに対応するServletクラスです。</t>
+    <t>戻り値の結果により、main.jspに表示する遷移先の情報を判定</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>センイサキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>馬嶋航大</t>
+    <rPh sb="0" eb="2">
+      <t>マジマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウダイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.String型の変数pathに遷移先であるmain.jspを定義する</t>
-    <rPh sb="8" eb="9">
+    <t>MainServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebServletアノテーションの引数は、自身のクラス名にすること。
+Name属性：main
+urlPatterns属性：/main</t>
+    <rPh sb="40" eb="42">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定用変数：flg</t>
+    <rPh sb="0" eb="5">
+      <t>ハンテイヨウヘンスウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>a)ログイン画面に遷移する表示</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>b)会員情報変更画面に遷移する表示</t>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>LoginCheckUtilのloginCheckメソッドの呼び出し</t>
+    <rPh sb="30" eb="31">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>String型の変数pathに遷移先であるmain.jspを定義</t>
+    <rPh sb="6" eb="7">
       <t>カタ</t>
     </rPh>
-    <rPh sb="10" eb="12">
+    <rPh sb="8" eb="10">
       <t>ヘンスウ</t>
     </rPh>
-    <rPh sb="17" eb="20">
+    <rPh sb="15" eb="18">
       <t>センイサキ</t>
     </rPh>
-    <rPh sb="32" eb="34">
+    <rPh sb="30" eb="32">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>遷移先にフォワード</t>
+    <rPh sb="0" eb="3">
+      <t>センイサキ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>処理No</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="4">
+      <t>ショリナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Mainに遷移するServletクラスです。</t>
+    <rPh sb="5" eb="7">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻り値を判定用変数に定義</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="4" eb="9">
+      <t>ハンテイヨウヘンスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>テイギ</t>
     </rPh>
     <phoneticPr fontId="7"/>
@@ -279,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -429,13 +544,136 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -544,14 +782,68 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -575,6 +867,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,7 +1237,7 @@
   <dimension ref="A1:IX22"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="G4" sqref="G4:BI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -942,83 +1246,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="42" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="41" t="s">
-        <v>43</v>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="59" t="s">
+        <v>41</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="42" t="s">
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="42" t="s">
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="41" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="42" t="s">
-        <v>5</v>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="57">
+        <v>45554</v>
       </c>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="39">
-        <v>45000</v>
-      </c>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1218,78 +1522,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="42" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="42" t="s">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="59" t="str">
+        <f>クラス仕様!G5</f>
+        <v>MainServlet</v>
+      </c>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="41">
-        <f>クラス仕様!G5</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="42" t="s">
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="39"/>
-      <c r="BE2" s="39"/>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1489,1103 +1793,1105 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+    </row>
+    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="55"/>
+      <c r="BC5" s="55"/>
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55"/>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="55"/>
+      <c r="BH5" s="55"/>
+      <c r="BI5" s="55"/>
     </row>
-    <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="55"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="55"/>
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="55"/>
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="55"/>
+      <c r="BH6" s="55"/>
+      <c r="BI6" s="55"/>
     </row>
-    <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="38" t="s">
+    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
-    </row>
-    <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37" t="s">
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37" t="s">
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37" t="s">
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="56"/>
+      <c r="AX8" s="56"/>
+      <c r="AY8" s="56"/>
+      <c r="AZ8" s="56"/>
+      <c r="BA8" s="56"/>
+      <c r="BB8" s="56"/>
+      <c r="BC8" s="56"/>
+      <c r="BD8" s="56"/>
+      <c r="BE8" s="56"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="56"/>
+      <c r="BI8" s="56"/>
+    </row>
+    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="54"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="54"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="54"/>
+      <c r="AV9" s="54"/>
+      <c r="AW9" s="54"/>
+      <c r="AX9" s="54"/>
+      <c r="AY9" s="54"/>
+      <c r="AZ9" s="54"/>
+      <c r="BA9" s="54"/>
+      <c r="BB9" s="54"/>
+      <c r="BC9" s="54"/>
+      <c r="BD9" s="54"/>
+      <c r="BE9" s="54"/>
+      <c r="BF9" s="54"/>
+      <c r="BG9" s="54"/>
+      <c r="BH9" s="54"/>
+      <c r="BI9" s="54"/>
+    </row>
+    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="54"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="54"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="54"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="54"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="54"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="54"/>
+      <c r="AV10" s="54"/>
+      <c r="AW10" s="54"/>
+      <c r="AX10" s="54"/>
+      <c r="AY10" s="54"/>
+      <c r="AZ10" s="54"/>
+      <c r="BA10" s="54"/>
+      <c r="BB10" s="54"/>
+      <c r="BC10" s="54"/>
+      <c r="BD10" s="54"/>
+      <c r="BE10" s="54"/>
+      <c r="BF10" s="54"/>
+      <c r="BG10" s="54"/>
+      <c r="BH10" s="54"/>
+      <c r="BI10" s="54"/>
+    </row>
+    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="54"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="54"/>
+      <c r="AV11" s="54"/>
+      <c r="AW11" s="54"/>
+      <c r="AX11" s="54"/>
+      <c r="AY11" s="54"/>
+      <c r="AZ11" s="54"/>
+      <c r="BA11" s="54"/>
+      <c r="BB11" s="54"/>
+      <c r="BC11" s="54"/>
+      <c r="BD11" s="54"/>
+      <c r="BE11" s="54"/>
+      <c r="BF11" s="54"/>
+      <c r="BG11" s="54"/>
+      <c r="BH11" s="54"/>
+      <c r="BI11" s="54"/>
+    </row>
+    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="54"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="54"/>
+      <c r="AW12" s="54"/>
+      <c r="AX12" s="54"/>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="54"/>
+      <c r="BA12" s="54"/>
+      <c r="BB12" s="54"/>
+      <c r="BC12" s="54"/>
+      <c r="BD12" s="54"/>
+      <c r="BE12" s="54"/>
+      <c r="BF12" s="54"/>
+      <c r="BG12" s="54"/>
+      <c r="BH12" s="54"/>
+      <c r="BI12" s="54"/>
+    </row>
+    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="54"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+      <c r="AG13" s="54"/>
+      <c r="AH13" s="54"/>
+      <c r="AI13" s="54"/>
+      <c r="AJ13" s="54"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="54"/>
+      <c r="AW13" s="54"/>
+      <c r="AX13" s="54"/>
+      <c r="AY13" s="54"/>
+      <c r="AZ13" s="54"/>
+      <c r="BA13" s="54"/>
+      <c r="BB13" s="54"/>
+      <c r="BC13" s="54"/>
+      <c r="BD13" s="54"/>
+      <c r="BE13" s="54"/>
+      <c r="BF13" s="54"/>
+      <c r="BG13" s="54"/>
+      <c r="BH13" s="54"/>
+      <c r="BI13" s="54"/>
+    </row>
+    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+      <c r="AG14" s="54"/>
+      <c r="AH14" s="54"/>
+      <c r="AI14" s="54"/>
+      <c r="AJ14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
+      <c r="AU14" s="54"/>
+      <c r="AV14" s="54"/>
+      <c r="AW14" s="54"/>
+      <c r="AX14" s="54"/>
+      <c r="AY14" s="54"/>
+      <c r="AZ14" s="54"/>
+      <c r="BA14" s="54"/>
+      <c r="BB14" s="54"/>
+      <c r="BC14" s="54"/>
+      <c r="BD14" s="54"/>
+      <c r="BE14" s="54"/>
+      <c r="BF14" s="54"/>
+      <c r="BG14" s="54"/>
+      <c r="BH14" s="54"/>
+      <c r="BI14" s="54"/>
+    </row>
+    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
-    </row>
-    <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="36"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="36"/>
-      <c r="AL9" s="36"/>
-      <c r="AM9" s="36"/>
-      <c r="AN9" s="36"/>
-      <c r="AO9" s="36"/>
-      <c r="AP9" s="36"/>
-      <c r="AQ9" s="36"/>
-      <c r="AR9" s="36"/>
-      <c r="AS9" s="36"/>
-      <c r="AT9" s="36"/>
-      <c r="AU9" s="36"/>
-      <c r="AV9" s="36"/>
-      <c r="AW9" s="36"/>
-      <c r="AX9" s="36"/>
-      <c r="AY9" s="36"/>
-      <c r="AZ9" s="36"/>
-      <c r="BA9" s="36"/>
-      <c r="BB9" s="36"/>
-      <c r="BC9" s="36"/>
-      <c r="BD9" s="36"/>
-      <c r="BE9" s="36"/>
-      <c r="BF9" s="36"/>
-      <c r="BG9" s="36"/>
-      <c r="BH9" s="36"/>
-      <c r="BI9" s="36"/>
-    </row>
-    <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="36"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="36"/>
-      <c r="AG10" s="36"/>
-      <c r="AH10" s="36"/>
-      <c r="AI10" s="36"/>
-      <c r="AJ10" s="36"/>
-      <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
-      <c r="AM10" s="36"/>
-      <c r="AN10" s="36"/>
-      <c r="AO10" s="36"/>
-      <c r="AP10" s="36"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="36"/>
-      <c r="BD10" s="36"/>
-      <c r="BE10" s="36"/>
-      <c r="BF10" s="36"/>
-      <c r="BG10" s="36"/>
-      <c r="BH10" s="36"/>
-      <c r="BI10" s="36"/>
-    </row>
-    <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="36"/>
-      <c r="AG11" s="36"/>
-      <c r="AH11" s="36"/>
-      <c r="AI11" s="36"/>
-      <c r="AJ11" s="36"/>
-      <c r="AK11" s="36"/>
-      <c r="AL11" s="36"/>
-      <c r="AM11" s="36"/>
-      <c r="AN11" s="36"/>
-      <c r="AO11" s="36"/>
-      <c r="AP11" s="36"/>
-      <c r="AQ11" s="36"/>
-      <c r="AR11" s="36"/>
-      <c r="AS11" s="36"/>
-      <c r="AT11" s="36"/>
-      <c r="AU11" s="36"/>
-      <c r="AV11" s="36"/>
-      <c r="AW11" s="36"/>
-      <c r="AX11" s="36"/>
-      <c r="AY11" s="36"/>
-      <c r="AZ11" s="36"/>
-      <c r="BA11" s="36"/>
-      <c r="BB11" s="36"/>
-      <c r="BC11" s="36"/>
-      <c r="BD11" s="36"/>
-      <c r="BE11" s="36"/>
-      <c r="BF11" s="36"/>
-      <c r="BG11" s="36"/>
-      <c r="BH11" s="36"/>
-      <c r="BI11" s="36"/>
-    </row>
-    <row r="12" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="36"/>
-      <c r="AA12" s="36"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="36"/>
-      <c r="AG12" s="36"/>
-      <c r="AH12" s="36"/>
-      <c r="AI12" s="36"/>
-      <c r="AJ12" s="36"/>
-      <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
-      <c r="AM12" s="36"/>
-      <c r="AN12" s="36"/>
-      <c r="AO12" s="36"/>
-      <c r="AP12" s="36"/>
-      <c r="AQ12" s="36"/>
-      <c r="AR12" s="36"/>
-      <c r="AS12" s="36"/>
-      <c r="AT12" s="36"/>
-      <c r="AU12" s="36"/>
-      <c r="AV12" s="36"/>
-      <c r="AW12" s="36"/>
-      <c r="AX12" s="36"/>
-      <c r="AY12" s="36"/>
-      <c r="AZ12" s="36"/>
-      <c r="BA12" s="36"/>
-      <c r="BB12" s="36"/>
-      <c r="BC12" s="36"/>
-      <c r="BD12" s="36"/>
-      <c r="BE12" s="36"/>
-      <c r="BF12" s="36"/>
-      <c r="BG12" s="36"/>
-      <c r="BH12" s="36"/>
-      <c r="BI12" s="36"/>
-    </row>
-    <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="36"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="36"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="36"/>
-      <c r="AC13" s="36"/>
-      <c r="AD13" s="36"/>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="36"/>
-      <c r="AG13" s="36"/>
-      <c r="AH13" s="36"/>
-      <c r="AI13" s="36"/>
-      <c r="AJ13" s="36"/>
-      <c r="AK13" s="36"/>
-      <c r="AL13" s="36"/>
-      <c r="AM13" s="36"/>
-      <c r="AN13" s="36"/>
-      <c r="AO13" s="36"/>
-      <c r="AP13" s="36"/>
-      <c r="AQ13" s="36"/>
-      <c r="AR13" s="36"/>
-      <c r="AS13" s="36"/>
-      <c r="AT13" s="36"/>
-      <c r="AU13" s="36"/>
-      <c r="AV13" s="36"/>
-      <c r="AW13" s="36"/>
-      <c r="AX13" s="36"/>
-      <c r="AY13" s="36"/>
-      <c r="AZ13" s="36"/>
-      <c r="BA13" s="36"/>
-      <c r="BB13" s="36"/>
-      <c r="BC13" s="36"/>
-      <c r="BD13" s="36"/>
-      <c r="BE13" s="36"/>
-      <c r="BF13" s="36"/>
-      <c r="BG13" s="36"/>
-      <c r="BH13" s="36"/>
-      <c r="BI13" s="36"/>
-    </row>
-    <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="36"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="36"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="36"/>
-      <c r="AC14" s="36"/>
-      <c r="AD14" s="36"/>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="36"/>
-      <c r="AG14" s="36"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="36"/>
-      <c r="AJ14" s="36"/>
-      <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
-      <c r="AM14" s="36"/>
-      <c r="AN14" s="36"/>
-      <c r="AO14" s="36"/>
-      <c r="AP14" s="36"/>
-      <c r="AQ14" s="36"/>
-      <c r="AR14" s="36"/>
-      <c r="AS14" s="36"/>
-      <c r="AT14" s="36"/>
-      <c r="AU14" s="36"/>
-      <c r="AV14" s="36"/>
-      <c r="AW14" s="36"/>
-      <c r="AX14" s="36"/>
-      <c r="AY14" s="36"/>
-      <c r="AZ14" s="36"/>
-      <c r="BA14" s="36"/>
-      <c r="BB14" s="36"/>
-      <c r="BC14" s="36"/>
-      <c r="BD14" s="36"/>
-      <c r="BE14" s="36"/>
-      <c r="BF14" s="36"/>
-      <c r="BG14" s="36"/>
-      <c r="BH14" s="36"/>
-      <c r="BI14" s="36"/>
-    </row>
-    <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
-      <c r="AS16" s="37"/>
-      <c r="AT16" s="37"/>
-      <c r="AU16" s="37"/>
-      <c r="AV16" s="37"/>
-      <c r="AW16" s="37"/>
-      <c r="AX16" s="37"/>
-      <c r="AY16" s="37"/>
-      <c r="AZ16" s="37"/>
-      <c r="BA16" s="37"/>
-      <c r="BB16" s="37"/>
-      <c r="BC16" s="37"/>
-      <c r="BD16" s="37"/>
-      <c r="BE16" s="37"/>
-      <c r="BF16" s="37"/>
-      <c r="BG16" s="37"/>
-      <c r="BH16" s="37"/>
-      <c r="BI16" s="37"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+      <c r="AR16" s="56"/>
+      <c r="AS16" s="56"/>
+      <c r="AT16" s="56"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="56"/>
+      <c r="AW16" s="56"/>
+      <c r="AX16" s="56"/>
+      <c r="AY16" s="56"/>
+      <c r="AZ16" s="56"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="56"/>
+      <c r="BC16" s="56"/>
+      <c r="BD16" s="56"/>
+      <c r="BE16" s="56"/>
+      <c r="BF16" s="56"/>
+      <c r="BG16" s="56"/>
+      <c r="BH16" s="56"/>
+      <c r="BI16" s="56"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>42</v>
+      <c r="A17" s="55" t="s">
+        <v>46</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="36"/>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="36"/>
-      <c r="AZ17" s="36"/>
-      <c r="BA17" s="36"/>
-      <c r="BB17" s="36"/>
-      <c r="BC17" s="36"/>
-      <c r="BD17" s="36"/>
-      <c r="BE17" s="36"/>
-      <c r="BF17" s="36"/>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="36"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="54"/>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="54"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="54"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="54"/>
+      <c r="BI17" s="54"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="36"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="36"/>
-      <c r="AA18" s="36"/>
-      <c r="AB18" s="36"/>
-      <c r="AC18" s="36"/>
-      <c r="AD18" s="36"/>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="36"/>
-      <c r="AG18" s="36"/>
-      <c r="AH18" s="36"/>
-      <c r="AI18" s="36"/>
-      <c r="AJ18" s="36"/>
-      <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
-      <c r="AN18" s="36"/>
-      <c r="AO18" s="36"/>
-      <c r="AP18" s="36"/>
-      <c r="AQ18" s="36"/>
-      <c r="AR18" s="36"/>
-      <c r="AS18" s="36"/>
-      <c r="AT18" s="36"/>
-      <c r="AU18" s="36"/>
-      <c r="AV18" s="36"/>
-      <c r="AW18" s="36"/>
-      <c r="AX18" s="36"/>
-      <c r="AY18" s="36"/>
-      <c r="AZ18" s="36"/>
-      <c r="BA18" s="36"/>
-      <c r="BB18" s="36"/>
-      <c r="BC18" s="36"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="36"/>
-      <c r="BG18" s="36"/>
-      <c r="BH18" s="36"/>
-      <c r="BI18" s="36"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
+      <c r="BG18" s="54"/>
+      <c r="BH18" s="54"/>
+      <c r="BI18" s="54"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="36"/>
-      <c r="U19" s="36"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-      <c r="AH19" s="36"/>
-      <c r="AI19" s="36"/>
-      <c r="AJ19" s="36"/>
-      <c r="AK19" s="36"/>
-      <c r="AL19" s="36"/>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="36"/>
-      <c r="AO19" s="36"/>
-      <c r="AP19" s="36"/>
-      <c r="AQ19" s="36"/>
-      <c r="AR19" s="36"/>
-      <c r="AS19" s="36"/>
-      <c r="AT19" s="36"/>
-      <c r="AU19" s="36"/>
-      <c r="AV19" s="36"/>
-      <c r="AW19" s="36"/>
-      <c r="AX19" s="36"/>
-      <c r="AY19" s="36"/>
-      <c r="AZ19" s="36"/>
-      <c r="BA19" s="36"/>
-      <c r="BB19" s="36"/>
-      <c r="BC19" s="36"/>
-      <c r="BD19" s="36"/>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="36"/>
-      <c r="BG19" s="36"/>
-      <c r="BH19" s="36"/>
-      <c r="BI19" s="36"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="54"/>
+      <c r="BA19" s="54"/>
+      <c r="BB19" s="54"/>
+      <c r="BC19" s="54"/>
+      <c r="BD19" s="54"/>
+      <c r="BE19" s="54"/>
+      <c r="BF19" s="54"/>
+      <c r="BG19" s="54"/>
+      <c r="BH19" s="54"/>
+      <c r="BI19" s="54"/>
     </row>
     <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="36"/>
-      <c r="T20" s="36"/>
-      <c r="U20" s="36"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-      <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="36"/>
-      <c r="AO20" s="36"/>
-      <c r="AP20" s="36"/>
-      <c r="AQ20" s="36"/>
-      <c r="AR20" s="36"/>
-      <c r="AS20" s="36"/>
-      <c r="AT20" s="36"/>
-      <c r="AU20" s="36"/>
-      <c r="AV20" s="36"/>
-      <c r="AW20" s="36"/>
-      <c r="AX20" s="36"/>
-      <c r="AY20" s="36"/>
-      <c r="AZ20" s="36"/>
-      <c r="BA20" s="36"/>
-      <c r="BB20" s="36"/>
-      <c r="BC20" s="36"/>
-      <c r="BD20" s="36"/>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="36"/>
-      <c r="BG20" s="36"/>
-      <c r="BH20" s="36"/>
-      <c r="BI20" s="36"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="54"/>
+      <c r="X20" s="54"/>
+      <c r="Y20" s="54"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="54"/>
+      <c r="AF20" s="54"/>
+      <c r="AG20" s="54"/>
+      <c r="AH20" s="54"/>
+      <c r="AI20" s="54"/>
+      <c r="AJ20" s="54"/>
+      <c r="AK20" s="54"/>
+      <c r="AL20" s="54"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="54"/>
+      <c r="AP20" s="54"/>
+      <c r="AQ20" s="54"/>
+      <c r="AR20" s="54"/>
+      <c r="AS20" s="54"/>
+      <c r="AT20" s="54"/>
+      <c r="AU20" s="54"/>
+      <c r="AV20" s="54"/>
+      <c r="AW20" s="54"/>
+      <c r="AX20" s="54"/>
+      <c r="AY20" s="54"/>
+      <c r="AZ20" s="54"/>
+      <c r="BA20" s="54"/>
+      <c r="BB20" s="54"/>
+      <c r="BC20" s="54"/>
+      <c r="BD20" s="54"/>
+      <c r="BE20" s="54"/>
+      <c r="BF20" s="54"/>
+      <c r="BG20" s="54"/>
+      <c r="BH20" s="54"/>
+      <c r="BI20" s="54"/>
     </row>
     <row r="21" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="36"/>
-      <c r="Q21" s="36"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
-      <c r="U21" s="36"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="36"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-      <c r="AK21" s="36"/>
-      <c r="AL21" s="36"/>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="36"/>
-      <c r="AO21" s="36"/>
-      <c r="AP21" s="36"/>
-      <c r="AQ21" s="36"/>
-      <c r="AR21" s="36"/>
-      <c r="AS21" s="36"/>
-      <c r="AT21" s="36"/>
-      <c r="AU21" s="36"/>
-      <c r="AV21" s="36"/>
-      <c r="AW21" s="36"/>
-      <c r="AX21" s="36"/>
-      <c r="AY21" s="36"/>
-      <c r="AZ21" s="36"/>
-      <c r="BA21" s="36"/>
-      <c r="BB21" s="36"/>
-      <c r="BC21" s="36"/>
-      <c r="BD21" s="36"/>
-      <c r="BE21" s="36"/>
-      <c r="BF21" s="36"/>
-      <c r="BG21" s="36"/>
-      <c r="BH21" s="36"/>
-      <c r="BI21" s="36"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="54"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="54"/>
+      <c r="X21" s="54"/>
+      <c r="Y21" s="54"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
+      <c r="AB21" s="54"/>
+      <c r="AC21" s="54"/>
+      <c r="AD21" s="54"/>
+      <c r="AE21" s="54"/>
+      <c r="AF21" s="54"/>
+      <c r="AG21" s="54"/>
+      <c r="AH21" s="54"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="54"/>
+      <c r="AK21" s="54"/>
+      <c r="AL21" s="54"/>
+      <c r="AM21" s="54"/>
+      <c r="AN21" s="54"/>
+      <c r="AO21" s="54"/>
+      <c r="AP21" s="54"/>
+      <c r="AQ21" s="54"/>
+      <c r="AR21" s="54"/>
+      <c r="AS21" s="54"/>
+      <c r="AT21" s="54"/>
+      <c r="AU21" s="54"/>
+      <c r="AV21" s="54"/>
+      <c r="AW21" s="54"/>
+      <c r="AX21" s="54"/>
+      <c r="AY21" s="54"/>
+      <c r="AZ21" s="54"/>
+      <c r="BA21" s="54"/>
+      <c r="BB21" s="54"/>
+      <c r="BC21" s="54"/>
+      <c r="BD21" s="54"/>
+      <c r="BE21" s="54"/>
+      <c r="BF21" s="54"/>
+      <c r="BG21" s="54"/>
+      <c r="BH21" s="54"/>
+      <c r="BI21" s="54"/>
     </row>
     <row r="22" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
-      <c r="U22" s="36"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="36"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="36"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="36"/>
-      <c r="AC22" s="36"/>
-      <c r="AD22" s="36"/>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-      <c r="AJ22" s="36"/>
-      <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
-      <c r="AM22" s="36"/>
-      <c r="AN22" s="36"/>
-      <c r="AO22" s="36"/>
-      <c r="AP22" s="36"/>
-      <c r="AQ22" s="36"/>
-      <c r="AR22" s="36"/>
-      <c r="AS22" s="36"/>
-      <c r="AT22" s="36"/>
-      <c r="AU22" s="36"/>
-      <c r="AV22" s="36"/>
-      <c r="AW22" s="36"/>
-      <c r="AX22" s="36"/>
-      <c r="AY22" s="36"/>
-      <c r="AZ22" s="36"/>
-      <c r="BA22" s="36"/>
-      <c r="BB22" s="36"/>
-      <c r="BC22" s="36"/>
-      <c r="BD22" s="36"/>
-      <c r="BE22" s="36"/>
-      <c r="BF22" s="36"/>
-      <c r="BG22" s="36"/>
-      <c r="BH22" s="36"/>
-      <c r="BI22" s="36"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="54"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="54"/>
+      <c r="X22" s="54"/>
+      <c r="Y22" s="54"/>
+      <c r="Z22" s="54"/>
+      <c r="AA22" s="54"/>
+      <c r="AB22" s="54"/>
+      <c r="AC22" s="54"/>
+      <c r="AD22" s="54"/>
+      <c r="AE22" s="54"/>
+      <c r="AF22" s="54"/>
+      <c r="AG22" s="54"/>
+      <c r="AH22" s="54"/>
+      <c r="AI22" s="54"/>
+      <c r="AJ22" s="54"/>
+      <c r="AK22" s="54"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="54"/>
+      <c r="AN22" s="54"/>
+      <c r="AO22" s="54"/>
+      <c r="AP22" s="54"/>
+      <c r="AQ22" s="54"/>
+      <c r="AR22" s="54"/>
+      <c r="AS22" s="54"/>
+      <c r="AT22" s="54"/>
+      <c r="AU22" s="54"/>
+      <c r="AV22" s="54"/>
+      <c r="AW22" s="54"/>
+      <c r="AX22" s="54"/>
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="54"/>
+      <c r="BA22" s="54"/>
+      <c r="BB22" s="54"/>
+      <c r="BC22" s="54"/>
+      <c r="BD22" s="54"/>
+      <c r="BE22" s="54"/>
+      <c r="BF22" s="54"/>
+      <c r="BG22" s="54"/>
+      <c r="BH22" s="54"/>
+      <c r="BI22" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="62">
@@ -2662,10 +2968,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IX54"/>
+  <dimension ref="A1:IX55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="AR18" sqref="AR18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2674,87 +2980,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="42" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="41" t="str">
-        <f>クラス仕様!R1</f>
-        <v>商品購入</v>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="59" t="s">
+        <v>41</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="42" t="s">
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="41">
-        <f>クラス仕様!AE1</f>
-        <v>0</v>
-      </c>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="42" t="s">
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="41" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="42" t="s">
-        <v>5</v>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="57">
+        <v>45554</v>
       </c>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="39">
-        <v>45000</v>
-      </c>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -2954,78 +3256,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="42" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="42" t="s">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="59" t="str">
+        <f>クラス仕様!G5</f>
+        <v>MainServlet</v>
+      </c>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="41">
-        <f>クラス仕様!G5</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="42" t="s">
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="39"/>
-      <c r="BE2" s="39"/>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3225,71 +3527,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>19</v>
+      <c r="A4" s="56" t="s">
+        <v>18</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
-        <v>12</v>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="55" t="s">
+        <v>11</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3489,71 +3791,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>20</v>
+      <c r="A5" s="56" t="s">
+        <v>19</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
-        <v>44</v>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55" t="s">
+        <v>42</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="55"/>
+      <c r="BC5" s="55"/>
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55"/>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="55"/>
+      <c r="BH5" s="55"/>
+      <c r="BI5" s="55"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -4013,75 +4315,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46" t="s">
-        <v>23</v>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64" t="s">
+        <v>13</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46" t="s">
-        <v>14</v>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64" t="s">
+        <v>16</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="46"/>
-      <c r="BG7" s="46"/>
-      <c r="BH7" s="46"/>
-      <c r="BI7" s="46"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="64"/>
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="64"/>
+      <c r="BE7" s="64"/>
+      <c r="BF7" s="64"/>
+      <c r="BG7" s="64"/>
+      <c r="BH7" s="64"/>
+      <c r="BI7" s="64"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -4281,75 +4583,75 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -4549,75 +4851,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>24</v>
+      <c r="A9" s="62" t="s">
+        <v>23</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45" t="s">
-        <v>39</v>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
+        <v>38</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45" t="s">
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45"/>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="63"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="63"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="63"/>
+      <c r="BC9" s="63"/>
+      <c r="BD9" s="63"/>
+      <c r="BE9" s="63"/>
+      <c r="BF9" s="63"/>
+      <c r="BG9" s="63"/>
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="63"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -4817,75 +5119,75 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45" t="s">
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="49"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="49"/>
-      <c r="BB10" s="49"/>
-      <c r="BC10" s="49"/>
-      <c r="BD10" s="49"/>
-      <c r="BE10" s="49"/>
-      <c r="BF10" s="49"/>
-      <c r="BG10" s="49"/>
-      <c r="BH10" s="49"/>
-      <c r="BI10" s="49"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="71"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="71"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -5085,75 +5387,75 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>29</v>
+      <c r="A11" s="62" t="s">
+        <v>28</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45" t="s">
-        <v>40</v>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63" t="s">
+        <v>39</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="45"/>
-      <c r="BE11" s="45"/>
-      <c r="BF11" s="45"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="63"/>
+      <c r="AO11" s="63"/>
+      <c r="AP11" s="63"/>
+      <c r="AQ11" s="63"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="63"/>
+      <c r="AU11" s="63"/>
+      <c r="AV11" s="63"/>
+      <c r="AW11" s="63"/>
+      <c r="AX11" s="63"/>
+      <c r="AY11" s="63"/>
+      <c r="AZ11" s="63"/>
+      <c r="BA11" s="63"/>
+      <c r="BB11" s="63"/>
+      <c r="BC11" s="63"/>
+      <c r="BD11" s="63"/>
+      <c r="BE11" s="63"/>
+      <c r="BF11" s="63"/>
+      <c r="BG11" s="63"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="63"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -5613,73 +5915,75 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="66"/>
+      <c r="AC13" s="66"/>
+      <c r="AD13" s="66"/>
+      <c r="AE13" s="66"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
+      <c r="AM13" s="66"/>
+      <c r="AN13" s="66"/>
+      <c r="AO13" s="66"/>
+      <c r="AP13" s="66"/>
+      <c r="AQ13" s="66"/>
+      <c r="AR13" s="66"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BI13" s="48"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
+      <c r="BC13" s="69"/>
+      <c r="BD13" s="69"/>
+      <c r="BE13" s="69"/>
+      <c r="BF13" s="69"/>
+      <c r="BG13" s="69"/>
+      <c r="BH13" s="69"/>
+      <c r="BI13" s="70"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -5894,13 +6198,15 @@
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="7" t="s">
-        <v>46</v>
+      <c r="P14" s="36">
+        <v>1</v>
       </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T14" s="21"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
@@ -5926,7 +6232,9 @@
       <c r="AQ14" s="12"/>
       <c r="AR14" s="12"/>
       <c r="AS14" s="12"/>
-      <c r="AT14" s="4"/>
+      <c r="AT14" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="AU14" s="25"/>
       <c r="AV14" s="25"/>
       <c r="AW14" s="5"/>
@@ -6155,11 +6463,12 @@
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="10"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="38"/>
+      <c r="T15" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
@@ -6401,8 +6710,7 @@
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="8"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -6415,36 +6723,37 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="10"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="12"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="38"/>
+      <c r="T16" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
-      <c r="AH16" s="13"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="13"/>
-      <c r="AL16" s="13"/>
-      <c r="AM16" s="13"/>
-      <c r="AN16" s="13"/>
-      <c r="AO16" s="13"/>
-      <c r="AP16" s="13"/>
-      <c r="AQ16" s="13"/>
-      <c r="AR16" s="13"/>
-      <c r="AS16" s="13"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="12"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="12"/>
       <c r="AT16" s="7"/>
       <c r="AU16" s="22"/>
       <c r="AV16" s="22"/>
@@ -6661,8 +6970,7 @@
     </row>
     <row r="17" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="8"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -6675,34 +6983,37 @@
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="10"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="13"/>
-      <c r="AF17" s="13"/>
-      <c r="AG17" s="13"/>
-      <c r="AH17" s="13"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="13"/>
-      <c r="AK17" s="13"/>
-      <c r="AL17" s="13"/>
-      <c r="AM17" s="13"/>
-      <c r="AN17" s="13"/>
-      <c r="AO17" s="13"/>
-      <c r="AP17" s="13"/>
-      <c r="AQ17" s="13"/>
-      <c r="AR17" s="13"/>
-      <c r="AS17" s="13"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="38"/>
+      <c r="T17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
       <c r="AT17" s="7"/>
       <c r="AU17" s="22"/>
       <c r="AV17" s="22"/>
@@ -6933,34 +7244,38 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="10"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="13"/>
-      <c r="AL18" s="13"/>
-      <c r="AM18" s="13"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="13"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="U18" s="51"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
+      <c r="AD18" s="52"/>
+      <c r="AE18" s="52"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="52"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="52"/>
+      <c r="AK18" s="52"/>
+      <c r="AL18" s="52"/>
+      <c r="AM18" s="52"/>
+      <c r="AN18" s="52"/>
+      <c r="AO18" s="52"/>
+      <c r="AP18" s="52"/>
+      <c r="AQ18" s="52"/>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="53"/>
       <c r="AT18" s="7"/>
       <c r="AU18" s="22"/>
       <c r="AV18" s="22"/>
@@ -7191,13 +7506,16 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="10"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
+      <c r="P19" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="T19" s="11"/>
+      <c r="U19" s="9"/>
       <c r="W19" s="13"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
@@ -7451,36 +7769,36 @@
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="10"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
-      <c r="AI20" s="13"/>
-      <c r="AJ20" s="13"/>
-      <c r="AK20" s="13"/>
-      <c r="AL20" s="13"/>
-      <c r="AM20" s="13"/>
-      <c r="AN20" s="13"/>
-      <c r="AO20" s="13"/>
-      <c r="AP20" s="13"/>
-      <c r="AQ20" s="13"/>
-      <c r="AR20" s="13"/>
-      <c r="AS20" s="13"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
+      <c r="AD20" s="52"/>
+      <c r="AE20" s="52"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="52"/>
+      <c r="AH20" s="52"/>
+      <c r="AI20" s="52"/>
+      <c r="AJ20" s="52"/>
+      <c r="AK20" s="52"/>
+      <c r="AL20" s="52"/>
+      <c r="AM20" s="52"/>
+      <c r="AN20" s="52"/>
+      <c r="AO20" s="52"/>
+      <c r="AP20" s="52"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="53"/>
       <c r="AT20" s="7"/>
       <c r="AU20" s="22"/>
       <c r="AV20" s="22"/>
@@ -7711,36 +8029,40 @@
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="10"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="13"/>
-      <c r="AF21" s="13"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="13"/>
-      <c r="AJ21" s="13"/>
-      <c r="AK21" s="13"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="13"/>
-      <c r="AN21" s="13"/>
-      <c r="AO21" s="13"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="13"/>
-      <c r="AR21" s="13"/>
-      <c r="AS21" s="13"/>
+      <c r="P21" s="47">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21" s="51"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="53"/>
       <c r="AT21" s="7"/>
       <c r="AU21" s="22"/>
       <c r="AV21" s="22"/>
@@ -7973,7 +8295,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="9"/>
-      <c r="R22" s="8"/>
+      <c r="R22" s="39"/>
       <c r="S22" s="8"/>
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
@@ -8233,7 +8555,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="9"/>
-      <c r="R23" s="8"/>
+      <c r="R23" s="39"/>
       <c r="S23" s="8"/>
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
@@ -8493,8 +8815,9 @@
       <c r="O24" s="10"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="9"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="13"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="13"/>
       <c r="W24" s="13"/>
@@ -8752,7 +9075,7 @@
       <c r="O25" s="10"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="13"/>
+      <c r="R25" s="39"/>
       <c r="S25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="13"/>
@@ -9010,10 +9333,9 @@
       <c r="N26" s="9"/>
       <c r="O26" s="10"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="13"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
@@ -9270,8 +9592,8 @@
       <c r="N27" s="9"/>
       <c r="O27" s="10"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="40"/>
       <c r="S27" s="8"/>
       <c r="T27" s="13"/>
       <c r="U27" s="13"/>
@@ -9531,7 +9853,7 @@
       <c r="O28" s="10"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="9"/>
-      <c r="R28" s="13"/>
+      <c r="R28" s="40"/>
       <c r="S28" s="8"/>
       <c r="T28" s="13"/>
       <c r="U28" s="13"/>
@@ -9789,9 +10111,9 @@
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="10"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="13"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="40"/>
       <c r="S29" s="8"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
@@ -10049,9 +10371,9 @@
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="10"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="13"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="40"/>
       <c r="S30" s="8"/>
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
@@ -10309,10 +10631,10 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="10"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="29"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="8"/>
       <c r="T31" s="13"/>
       <c r="U31" s="13"/>
       <c r="V31" s="13"/>
@@ -10571,10 +10893,10 @@
       <c r="O32" s="10"/>
       <c r="P32" s="27"/>
       <c r="Q32" s="28"/>
-      <c r="R32" s="13"/>
+      <c r="R32" s="40"/>
       <c r="S32" s="29"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="29"/>
+      <c r="U32" s="13"/>
       <c r="V32" s="13"/>
       <c r="W32" s="13"/>
       <c r="X32" s="13"/>
@@ -10829,12 +11151,12 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="10"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="8"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="29"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
+      <c r="U33" s="29"/>
       <c r="V33" s="13"/>
       <c r="W33" s="13"/>
       <c r="X33" s="13"/>
@@ -11091,7 +11413,7 @@
       <c r="O34" s="10"/>
       <c r="P34" s="7"/>
       <c r="Q34" s="9"/>
-      <c r="R34" s="13"/>
+      <c r="R34" s="40"/>
       <c r="S34" s="8"/>
       <c r="T34" s="13"/>
       <c r="U34" s="13"/>
@@ -11351,7 +11673,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="9"/>
-      <c r="R35" s="13"/>
+      <c r="R35" s="40"/>
       <c r="S35" s="8"/>
       <c r="T35" s="13"/>
       <c r="U35" s="13"/>
@@ -11611,8 +11933,8 @@
       <c r="O36" s="10"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="9"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="8"/>
       <c r="T36" s="13"/>
       <c r="U36" s="13"/>
       <c r="V36" s="13"/>
@@ -11871,7 +12193,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="9"/>
-      <c r="R37" s="13"/>
+      <c r="R37" s="40"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
       <c r="U37" s="13"/>
@@ -12129,9 +12451,9 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="10"/>
-      <c r="P38" s="3"/>
+      <c r="P38" s="7"/>
       <c r="Q38" s="9"/>
-      <c r="R38" s="33"/>
+      <c r="R38" s="40"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
       <c r="U38" s="13"/>
@@ -12389,9 +12711,9 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="10"/>
-      <c r="P39" s="3"/>
+      <c r="P39" s="41"/>
       <c r="Q39" s="9"/>
-      <c r="R39" s="33"/>
+      <c r="R39" s="42"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
       <c r="U39" s="13"/>
@@ -12649,11 +12971,11 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="10"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="13"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="42"/>
       <c r="S40" s="13"/>
-      <c r="T40" s="33"/>
+      <c r="T40" s="13"/>
       <c r="U40" s="13"/>
       <c r="V40" s="13"/>
       <c r="W40" s="13"/>
@@ -12909,12 +13231,12 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="10"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="34"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="13"/>
       <c r="T41" s="33"/>
-      <c r="U41" s="34"/>
+      <c r="U41" s="13"/>
       <c r="V41" s="13"/>
       <c r="W41" s="13"/>
       <c r="X41" s="13"/>
@@ -12942,7 +13264,7 @@
       <c r="AT41" s="7"/>
       <c r="AU41" s="22"/>
       <c r="AV41" s="22"/>
-      <c r="AW41" s="9"/>
+      <c r="AW41" s="8"/>
       <c r="AX41" s="9"/>
       <c r="AY41" s="9"/>
       <c r="AZ41" s="9"/>
@@ -13169,41 +13491,41 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="10"/>
-      <c r="P42" s="3"/>
+      <c r="P42" s="41"/>
       <c r="Q42" s="9"/>
-      <c r="R42" s="13"/>
+      <c r="R42" s="40"/>
       <c r="S42" s="34"/>
       <c r="T42" s="33"/>
       <c r="U42" s="34"/>
       <c r="V42" s="13"/>
       <c r="W42" s="13"/>
       <c r="X42" s="13"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="9"/>
-      <c r="AB42" s="9"/>
-      <c r="AC42" s="9"/>
-      <c r="AD42" s="9"/>
-      <c r="AE42" s="9"/>
-      <c r="AF42" s="9"/>
-      <c r="AG42" s="9"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="9"/>
-      <c r="AJ42" s="9"/>
-      <c r="AK42" s="9"/>
-      <c r="AL42" s="9"/>
-      <c r="AM42" s="9"/>
-      <c r="AN42" s="9"/>
-      <c r="AO42" s="9"/>
-      <c r="AP42" s="9"/>
-      <c r="AQ42" s="9"/>
-      <c r="AR42" s="9"/>
-      <c r="AS42" s="9"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
+      <c r="AH42" s="13"/>
+      <c r="AI42" s="13"/>
+      <c r="AJ42" s="13"/>
+      <c r="AK42" s="13"/>
+      <c r="AL42" s="13"/>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="13"/>
+      <c r="AP42" s="13"/>
+      <c r="AQ42" s="13"/>
+      <c r="AR42" s="13"/>
+      <c r="AS42" s="13"/>
       <c r="AT42" s="7"/>
       <c r="AU42" s="22"/>
       <c r="AV42" s="22"/>
       <c r="AW42" s="9"/>
-      <c r="AX42" s="8"/>
+      <c r="AX42" s="9"/>
       <c r="AY42" s="9"/>
       <c r="AZ42" s="9"/>
       <c r="BA42" s="9"/>
@@ -13429,11 +13751,11 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
       <c r="O43" s="10"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="34"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="40"/>
       <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
+      <c r="T43" s="33"/>
       <c r="U43" s="34"/>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
@@ -13459,7 +13781,7 @@
       <c r="AQ43" s="9"/>
       <c r="AR43" s="9"/>
       <c r="AS43" s="9"/>
-      <c r="AT43" s="26"/>
+      <c r="AT43" s="7"/>
       <c r="AU43" s="22"/>
       <c r="AV43" s="22"/>
       <c r="AW43" s="9"/>
@@ -13690,36 +14012,36 @@
       <c r="N44" s="9"/>
       <c r="O44" s="10"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="34"/>
+      <c r="T44" s="34"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
       <c r="Y44" s="9"/>
-      <c r="Z44" s="12"/>
-      <c r="AA44" s="12"/>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
-      <c r="AF44" s="12"/>
-      <c r="AG44" s="12"/>
-      <c r="AH44" s="12"/>
-      <c r="AI44" s="12"/>
-      <c r="AJ44" s="12"/>
-      <c r="AK44" s="12"/>
-      <c r="AL44" s="12"/>
-      <c r="AM44" s="12"/>
-      <c r="AN44" s="12"/>
-      <c r="AO44" s="12"/>
-      <c r="AP44" s="12"/>
-      <c r="AQ44" s="12"/>
-      <c r="AR44" s="12"/>
-      <c r="AS44" s="12"/>
-      <c r="AT44" s="7"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
+      <c r="AE44" s="9"/>
+      <c r="AF44" s="9"/>
+      <c r="AG44" s="9"/>
+      <c r="AH44" s="9"/>
+      <c r="AI44" s="9"/>
+      <c r="AJ44" s="9"/>
+      <c r="AK44" s="9"/>
+      <c r="AL44" s="9"/>
+      <c r="AM44" s="9"/>
+      <c r="AN44" s="9"/>
+      <c r="AO44" s="9"/>
+      <c r="AP44" s="9"/>
+      <c r="AQ44" s="9"/>
+      <c r="AR44" s="9"/>
+      <c r="AS44" s="9"/>
+      <c r="AT44" s="26"/>
       <c r="AU44" s="22"/>
       <c r="AV44" s="22"/>
       <c r="AW44" s="9"/>
@@ -13951,9 +14273,9 @@
       <c r="O45" s="10"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="9"/>
-      <c r="R45" s="35"/>
+      <c r="R45" s="43"/>
       <c r="S45" s="35"/>
-      <c r="T45" s="13"/>
+      <c r="T45" s="35"/>
       <c r="U45" s="35"/>
       <c r="V45" s="35"/>
       <c r="W45" s="35"/>
@@ -14209,11 +14531,11 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="10"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="35"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="13"/>
       <c r="U46" s="35"/>
       <c r="V46" s="35"/>
       <c r="W46" s="35"/>
@@ -14469,11 +14791,11 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
       <c r="O47" s="10"/>
-      <c r="P47" s="7"/>
+      <c r="P47" s="31"/>
       <c r="Q47" s="30"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="13"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="35"/>
       <c r="U47" s="35"/>
       <c r="V47" s="35"/>
       <c r="W47" s="35"/>
@@ -14730,8 +15052,8 @@
       <c r="N48" s="9"/>
       <c r="O48" s="10"/>
       <c r="P48" s="7"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="35"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="43"/>
       <c r="S48" s="35"/>
       <c r="T48" s="13"/>
       <c r="U48" s="35"/>
@@ -14990,15 +15312,15 @@
       <c r="N49" s="9"/>
       <c r="O49" s="10"/>
       <c r="P49" s="7"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="35"/>
       <c r="T49" s="13"/>
       <c r="U49" s="35"/>
       <c r="V49" s="35"/>
       <c r="W49" s="35"/>
       <c r="X49" s="35"/>
-      <c r="Y49" s="12"/>
+      <c r="Y49" s="9"/>
       <c r="Z49" s="12"/>
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
@@ -15251,13 +15573,13 @@
       <c r="O50" s="10"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="30"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="12"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="12"/>
-      <c r="W50" s="12"/>
-      <c r="X50" s="12"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
       <c r="Y50" s="12"/>
       <c r="Z50" s="12"/>
       <c r="AA50" s="12"/>
@@ -15279,7 +15601,7 @@
       <c r="AQ50" s="12"/>
       <c r="AR50" s="12"/>
       <c r="AS50" s="12"/>
-      <c r="AT50" s="31"/>
+      <c r="AT50" s="7"/>
       <c r="AU50" s="22"/>
       <c r="AV50" s="22"/>
       <c r="AW50" s="9"/>
@@ -15510,11 +15832,11 @@
       <c r="N51" s="9"/>
       <c r="O51" s="10"/>
       <c r="P51" s="7"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="35"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="44"/>
       <c r="S51" s="12"/>
       <c r="T51" s="9"/>
-      <c r="U51" s="12"/>
+      <c r="U51" s="32"/>
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
       <c r="X51" s="12"/>
@@ -15539,7 +15861,7 @@
       <c r="AQ51" s="12"/>
       <c r="AR51" s="12"/>
       <c r="AS51" s="12"/>
-      <c r="AT51" s="7"/>
+      <c r="AT51" s="31"/>
       <c r="AU51" s="22"/>
       <c r="AV51" s="22"/>
       <c r="AW51" s="9"/>
@@ -15770,9 +16092,10 @@
       <c r="N52" s="9"/>
       <c r="O52" s="10"/>
       <c r="P52" s="7"/>
-      <c r="R52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="43"/>
       <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
+      <c r="T52" s="9"/>
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
       <c r="W52" s="12"/>
@@ -16013,67 +16336,67 @@
       <c r="IX52" s="1"/>
     </row>
     <row r="53" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
-      <c r="X53" s="18"/>
-      <c r="Y53" s="18"/>
-      <c r="Z53" s="18"/>
-      <c r="AA53" s="18"/>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
-      <c r="AE53" s="18"/>
-      <c r="AF53" s="18"/>
-      <c r="AG53" s="18"/>
-      <c r="AH53" s="18"/>
-      <c r="AI53" s="18"/>
-      <c r="AJ53" s="18"/>
-      <c r="AK53" s="18"/>
-      <c r="AL53" s="18"/>
-      <c r="AM53" s="18"/>
-      <c r="AN53" s="18"/>
-      <c r="AO53" s="18"/>
-      <c r="AP53" s="18"/>
-      <c r="AQ53" s="18"/>
-      <c r="AR53" s="18"/>
-      <c r="AS53" s="18"/>
-      <c r="AT53" s="14"/>
-      <c r="AU53" s="24"/>
-      <c r="AV53" s="24"/>
-      <c r="AW53" s="15"/>
-      <c r="AX53" s="19"/>
-      <c r="AY53" s="15"/>
-      <c r="AZ53" s="15"/>
-      <c r="BA53" s="15"/>
-      <c r="BB53" s="15"/>
-      <c r="BC53" s="15"/>
-      <c r="BD53" s="15"/>
-      <c r="BE53" s="15"/>
-      <c r="BF53" s="15"/>
-      <c r="BG53" s="15"/>
-      <c r="BH53" s="15"/>
-      <c r="BI53" s="16"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="12"/>
+      <c r="AC53" s="12"/>
+      <c r="AD53" s="12"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="12"/>
+      <c r="AN53" s="12"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="22"/>
+      <c r="AV53" s="22"/>
+      <c r="AW53" s="9"/>
+      <c r="AX53" s="8"/>
+      <c r="AY53" s="9"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="9"/>
+      <c r="BC53" s="9"/>
+      <c r="BD53" s="9"/>
+      <c r="BE53" s="9"/>
+      <c r="BF53" s="9"/>
+      <c r="BG53" s="9"/>
+      <c r="BH53" s="9"/>
+      <c r="BI53" s="10"/>
       <c r="BJ53" s="1"/>
       <c r="BK53" s="1"/>
       <c r="BL53" s="1"/>
@@ -16273,67 +16596,67 @@
       <c r="IX53" s="1"/>
     </row>
     <row r="54" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="20"/>
-      <c r="Y54" s="20"/>
-      <c r="Z54" s="20"/>
-      <c r="AA54" s="20"/>
-      <c r="AB54" s="20"/>
-      <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
-      <c r="AF54" s="20"/>
-      <c r="AG54" s="20"/>
-      <c r="AH54" s="20"/>
-      <c r="AI54" s="20"/>
-      <c r="AJ54" s="20"/>
-      <c r="AK54" s="20"/>
-      <c r="AL54" s="20"/>
-      <c r="AM54" s="20"/>
-      <c r="AN54" s="20"/>
-      <c r="AO54" s="20"/>
-      <c r="AP54" s="20"/>
-      <c r="AQ54" s="20"/>
-      <c r="AR54" s="20"/>
-      <c r="AS54" s="20"/>
-      <c r="AT54" s="20"/>
-      <c r="AU54" s="20"/>
-      <c r="AV54" s="20"/>
-      <c r="AW54" s="20"/>
-      <c r="AX54" s="20"/>
-      <c r="AY54" s="20"/>
-      <c r="AZ54" s="20"/>
-      <c r="BA54" s="20"/>
-      <c r="BB54" s="20"/>
-      <c r="BC54" s="20"/>
-      <c r="BD54" s="20"/>
-      <c r="BE54" s="20"/>
-      <c r="BF54" s="20"/>
-      <c r="BG54" s="20"/>
-      <c r="BH54" s="20"/>
-      <c r="BI54" s="20"/>
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="18"/>
+      <c r="AA54" s="18"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="18"/>
+      <c r="AH54" s="18"/>
+      <c r="AI54" s="18"/>
+      <c r="AJ54" s="18"/>
+      <c r="AK54" s="18"/>
+      <c r="AL54" s="18"/>
+      <c r="AM54" s="18"/>
+      <c r="AN54" s="18"/>
+      <c r="AO54" s="18"/>
+      <c r="AP54" s="18"/>
+      <c r="AQ54" s="18"/>
+      <c r="AR54" s="18"/>
+      <c r="AS54" s="18"/>
+      <c r="AT54" s="14"/>
+      <c r="AU54" s="24"/>
+      <c r="AV54" s="24"/>
+      <c r="AW54" s="15"/>
+      <c r="AX54" s="19"/>
+      <c r="AY54" s="15"/>
+      <c r="AZ54" s="15"/>
+      <c r="BA54" s="15"/>
+      <c r="BB54" s="15"/>
+      <c r="BC54" s="15"/>
+      <c r="BD54" s="15"/>
+      <c r="BE54" s="15"/>
+      <c r="BF54" s="15"/>
+      <c r="BG54" s="15"/>
+      <c r="BH54" s="15"/>
+      <c r="BI54" s="16"/>
       <c r="BJ54" s="1"/>
       <c r="BK54" s="1"/>
       <c r="BL54" s="1"/>
@@ -16532,14 +16855,275 @@
       <c r="IW54" s="1"/>
       <c r="IX54" s="1"/>
     </row>
+    <row r="55" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="20"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="20"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="20"/>
+      <c r="AD55" s="20"/>
+      <c r="AE55" s="20"/>
+      <c r="AF55" s="20"/>
+      <c r="AG55" s="20"/>
+      <c r="AH55" s="20"/>
+      <c r="AI55" s="20"/>
+      <c r="AJ55" s="20"/>
+      <c r="AK55" s="20"/>
+      <c r="AL55" s="20"/>
+      <c r="AM55" s="20"/>
+      <c r="AN55" s="20"/>
+      <c r="AO55" s="20"/>
+      <c r="AP55" s="20"/>
+      <c r="AQ55" s="20"/>
+      <c r="AR55" s="20"/>
+      <c r="AS55" s="20"/>
+      <c r="AT55" s="20"/>
+      <c r="AU55" s="20"/>
+      <c r="AV55" s="20"/>
+      <c r="AW55" s="20"/>
+      <c r="AX55" s="20"/>
+      <c r="AY55" s="20"/>
+      <c r="AZ55" s="20"/>
+      <c r="BA55" s="20"/>
+      <c r="BB55" s="20"/>
+      <c r="BC55" s="20"/>
+      <c r="BD55" s="20"/>
+      <c r="BE55" s="20"/>
+      <c r="BF55" s="20"/>
+      <c r="BG55" s="20"/>
+      <c r="BH55" s="20"/>
+      <c r="BI55" s="20"/>
+      <c r="BJ55" s="1"/>
+      <c r="BK55" s="1"/>
+      <c r="BL55" s="1"/>
+      <c r="BM55" s="1"/>
+      <c r="BN55" s="1"/>
+      <c r="BO55" s="1"/>
+      <c r="BP55" s="1"/>
+      <c r="BQ55" s="1"/>
+      <c r="BR55" s="1"/>
+      <c r="BS55" s="1"/>
+      <c r="BT55" s="1"/>
+      <c r="BU55" s="1"/>
+      <c r="BV55" s="1"/>
+      <c r="BW55" s="1"/>
+      <c r="BX55" s="1"/>
+      <c r="BY55" s="1"/>
+      <c r="BZ55" s="1"/>
+      <c r="CA55" s="1"/>
+      <c r="CB55" s="1"/>
+      <c r="CC55" s="1"/>
+      <c r="CD55" s="1"/>
+      <c r="CE55" s="1"/>
+      <c r="CF55" s="1"/>
+      <c r="CG55" s="1"/>
+      <c r="CH55" s="1"/>
+      <c r="CI55" s="1"/>
+      <c r="CJ55" s="1"/>
+      <c r="CK55" s="1"/>
+      <c r="CL55" s="1"/>
+      <c r="CM55" s="1"/>
+      <c r="CN55" s="1"/>
+      <c r="CO55" s="1"/>
+      <c r="CP55" s="1"/>
+      <c r="CQ55" s="1"/>
+      <c r="CR55" s="1"/>
+      <c r="CS55" s="1"/>
+      <c r="CT55" s="1"/>
+      <c r="CU55" s="1"/>
+      <c r="CV55" s="1"/>
+      <c r="CW55" s="1"/>
+      <c r="CX55" s="1"/>
+      <c r="CY55" s="1"/>
+      <c r="CZ55" s="1"/>
+      <c r="DA55" s="1"/>
+      <c r="DB55" s="1"/>
+      <c r="DC55" s="1"/>
+      <c r="DD55" s="1"/>
+      <c r="DE55" s="1"/>
+      <c r="DF55" s="1"/>
+      <c r="DG55" s="1"/>
+      <c r="DH55" s="1"/>
+      <c r="DI55" s="1"/>
+      <c r="DJ55" s="1"/>
+      <c r="DK55" s="1"/>
+      <c r="DL55" s="1"/>
+      <c r="DM55" s="1"/>
+      <c r="DN55" s="1"/>
+      <c r="DO55" s="1"/>
+      <c r="DP55" s="1"/>
+      <c r="DQ55" s="1"/>
+      <c r="DR55" s="1"/>
+      <c r="DS55" s="1"/>
+      <c r="DT55" s="1"/>
+      <c r="DU55" s="1"/>
+      <c r="DV55" s="1"/>
+      <c r="DW55" s="1"/>
+      <c r="DX55" s="1"/>
+      <c r="DY55" s="1"/>
+      <c r="DZ55" s="1"/>
+      <c r="EA55" s="1"/>
+      <c r="EB55" s="1"/>
+      <c r="EC55" s="1"/>
+      <c r="ED55" s="1"/>
+      <c r="EE55" s="1"/>
+      <c r="EF55" s="1"/>
+      <c r="EG55" s="1"/>
+      <c r="EH55" s="1"/>
+      <c r="EI55" s="1"/>
+      <c r="EJ55" s="1"/>
+      <c r="EK55" s="1"/>
+      <c r="EL55" s="1"/>
+      <c r="EM55" s="1"/>
+      <c r="EN55" s="1"/>
+      <c r="EO55" s="1"/>
+      <c r="EP55" s="1"/>
+      <c r="EQ55" s="1"/>
+      <c r="ER55" s="1"/>
+      <c r="ES55" s="1"/>
+      <c r="ET55" s="1"/>
+      <c r="EU55" s="1"/>
+      <c r="EV55" s="1"/>
+      <c r="EW55" s="1"/>
+      <c r="EX55" s="1"/>
+      <c r="EY55" s="1"/>
+      <c r="EZ55" s="1"/>
+      <c r="FA55" s="1"/>
+      <c r="FB55" s="1"/>
+      <c r="FC55" s="1"/>
+      <c r="FD55" s="1"/>
+      <c r="FE55" s="1"/>
+      <c r="FF55" s="1"/>
+      <c r="FG55" s="1"/>
+      <c r="FH55" s="1"/>
+      <c r="FI55" s="1"/>
+      <c r="FJ55" s="1"/>
+      <c r="FK55" s="1"/>
+      <c r="FL55" s="1"/>
+      <c r="FM55" s="1"/>
+      <c r="FN55" s="1"/>
+      <c r="FO55" s="1"/>
+      <c r="FP55" s="1"/>
+      <c r="FQ55" s="1"/>
+      <c r="FR55" s="1"/>
+      <c r="FS55" s="1"/>
+      <c r="FT55" s="1"/>
+      <c r="FU55" s="1"/>
+      <c r="FV55" s="1"/>
+      <c r="FW55" s="1"/>
+      <c r="FX55" s="1"/>
+      <c r="FY55" s="1"/>
+      <c r="FZ55" s="1"/>
+      <c r="GA55" s="1"/>
+      <c r="GB55" s="1"/>
+      <c r="GC55" s="1"/>
+      <c r="GD55" s="1"/>
+      <c r="GE55" s="1"/>
+      <c r="GF55" s="1"/>
+      <c r="GG55" s="1"/>
+      <c r="GH55" s="1"/>
+      <c r="GI55" s="1"/>
+      <c r="GJ55" s="1"/>
+      <c r="GK55" s="1"/>
+      <c r="GL55" s="1"/>
+      <c r="GM55" s="1"/>
+      <c r="GN55" s="1"/>
+      <c r="GO55" s="1"/>
+      <c r="GP55" s="1"/>
+      <c r="GQ55" s="1"/>
+      <c r="GR55" s="1"/>
+      <c r="GS55" s="1"/>
+      <c r="GT55" s="1"/>
+      <c r="GU55" s="1"/>
+      <c r="GV55" s="1"/>
+      <c r="GW55" s="1"/>
+      <c r="GX55" s="1"/>
+      <c r="GY55" s="1"/>
+      <c r="GZ55" s="1"/>
+      <c r="HA55" s="1"/>
+      <c r="HB55" s="1"/>
+      <c r="HC55" s="1"/>
+      <c r="HD55" s="1"/>
+      <c r="HE55" s="1"/>
+      <c r="HF55" s="1"/>
+      <c r="HG55" s="1"/>
+      <c r="HH55" s="1"/>
+      <c r="HI55" s="1"/>
+      <c r="HJ55" s="1"/>
+      <c r="HK55" s="1"/>
+      <c r="HL55" s="1"/>
+      <c r="HM55" s="1"/>
+      <c r="HN55" s="1"/>
+      <c r="HO55" s="1"/>
+      <c r="HP55" s="1"/>
+      <c r="HQ55" s="1"/>
+      <c r="HR55" s="1"/>
+      <c r="HS55" s="1"/>
+      <c r="HT55" s="1"/>
+      <c r="HU55" s="1"/>
+      <c r="HV55" s="1"/>
+      <c r="HW55" s="1"/>
+      <c r="HX55" s="1"/>
+      <c r="HY55" s="1"/>
+      <c r="HZ55" s="1"/>
+      <c r="IA55" s="1"/>
+      <c r="IB55" s="1"/>
+      <c r="IC55" s="1"/>
+      <c r="ID55" s="1"/>
+      <c r="IE55" s="1"/>
+      <c r="IF55" s="1"/>
+      <c r="IG55" s="1"/>
+      <c r="IH55" s="1"/>
+      <c r="II55" s="1"/>
+      <c r="IJ55" s="1"/>
+      <c r="IK55" s="1"/>
+      <c r="IL55" s="1"/>
+      <c r="IM55" s="1"/>
+      <c r="IN55" s="1"/>
+      <c r="IO55" s="1"/>
+      <c r="IP55" s="1"/>
+      <c r="IQ55" s="1"/>
+      <c r="IR55" s="1"/>
+      <c r="IS55" s="1"/>
+      <c r="IT55" s="1"/>
+      <c r="IU55" s="1"/>
+      <c r="IV55" s="1"/>
+      <c r="IW55" s="1"/>
+      <c r="IX55" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:AS13"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="P9:AD9"/>
     <mergeCell ref="AE9:BI9"/>
     <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AS13"/>
     <mergeCell ref="AT13:BI13"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:O10"/>
@@ -16597,7 +17181,7 @@
   <dimension ref="A1:IX54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:Q1"/>
+      <selection activeCell="AF19" sqref="AF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16606,87 +17190,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="42" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="41" t="str">
-        <f>クラス仕様!R1</f>
-        <v>商品購入</v>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="59" t="s">
+        <v>41</v>
       </c>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="42" t="s">
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="42"/>
-      <c r="AE1" s="41">
-        <f>クラス仕様!AE1</f>
-        <v>0</v>
-      </c>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="41"/>
-      <c r="AM1" s="41"/>
-      <c r="AN1" s="41"/>
-      <c r="AO1" s="41"/>
-      <c r="AP1" s="41"/>
-      <c r="AQ1" s="42" t="s">
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="60"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="59"/>
+      <c r="AM1" s="59"/>
+      <c r="AN1" s="59"/>
+      <c r="AO1" s="59"/>
+      <c r="AP1" s="59"/>
+      <c r="AQ1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AR1" s="42"/>
-      <c r="AS1" s="42"/>
-      <c r="AT1" s="41" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="59"/>
+      <c r="AV1" s="59"/>
+      <c r="AW1" s="59"/>
+      <c r="AX1" s="59"/>
+      <c r="AY1" s="59"/>
+      <c r="AZ1" s="59"/>
+      <c r="BA1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="41"/>
-      <c r="AV1" s="41"/>
-      <c r="AW1" s="41"/>
-      <c r="AX1" s="41"/>
-      <c r="AY1" s="41"/>
-      <c r="AZ1" s="41"/>
-      <c r="BA1" s="42" t="s">
-        <v>5</v>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60"/>
+      <c r="BD1" s="57">
+        <v>45554</v>
       </c>
-      <c r="BB1" s="42"/>
-      <c r="BC1" s="42"/>
-      <c r="BD1" s="39">
-        <v>45000</v>
-      </c>
-      <c r="BE1" s="39"/>
-      <c r="BF1" s="39"/>
-      <c r="BG1" s="39"/>
-      <c r="BH1" s="39"/>
-      <c r="BI1" s="39"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
+      <c r="BG1" s="57"/>
+      <c r="BH1" s="57"/>
+      <c r="BI1" s="57"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -16886,78 +17466,78 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="42" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="42" t="s">
+      <c r="AC2" s="60"/>
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="59" t="str">
+        <f>クラス仕様!G5</f>
+        <v>MainServlet</v>
+      </c>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="41">
-        <f>クラス仕様!G5</f>
-        <v>0</v>
-      </c>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="42" t="s">
+      <c r="AR2" s="60"/>
+      <c r="AS2" s="60"/>
+      <c r="AT2" s="59"/>
+      <c r="AU2" s="59"/>
+      <c r="AV2" s="59"/>
+      <c r="AW2" s="59"/>
+      <c r="AX2" s="59"/>
+      <c r="AY2" s="59"/>
+      <c r="AZ2" s="59"/>
+      <c r="BA2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AR2" s="42"/>
-      <c r="AS2" s="42"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="39"/>
-      <c r="BE2" s="39"/>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
+      <c r="BB2" s="60"/>
+      <c r="BC2" s="60"/>
+      <c r="BD2" s="57"/>
+      <c r="BE2" s="57"/>
+      <c r="BF2" s="57"/>
+      <c r="BG2" s="57"/>
+      <c r="BH2" s="57"/>
+      <c r="BI2" s="57"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -17157,71 +17737,71 @@
       <c r="IX2" s="1"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>19</v>
+      <c r="A4" s="56" t="s">
+        <v>18</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
-        <v>12</v>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="55" t="s">
+        <v>11</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -17421,71 +18001,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="55"/>
+      <c r="W5" s="55"/>
+      <c r="X5" s="55"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="55"/>
+      <c r="AA5" s="55"/>
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55"/>
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="55"/>
+      <c r="AF5" s="55"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="55"/>
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55"/>
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AO5" s="55"/>
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="55"/>
+      <c r="BC5" s="55"/>
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55"/>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="55"/>
+      <c r="BH5" s="55"/>
+      <c r="BI5" s="55"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -17945,75 +18525,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46" t="s">
-        <v>23</v>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64" t="s">
+        <v>13</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-      <c r="O7" s="46"/>
-      <c r="P7" s="46" t="s">
-        <v>14</v>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64" t="s">
+        <v>16</v>
       </c>
-      <c r="Q7" s="46"/>
-      <c r="R7" s="46"/>
-      <c r="S7" s="46"/>
-      <c r="T7" s="46"/>
-      <c r="U7" s="46"/>
-      <c r="V7" s="46"/>
-      <c r="W7" s="46"/>
-      <c r="X7" s="46"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="46"/>
-      <c r="AB7" s="46"/>
-      <c r="AC7" s="46"/>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF7" s="46"/>
-      <c r="AG7" s="46"/>
-      <c r="AH7" s="46"/>
-      <c r="AI7" s="46"/>
-      <c r="AJ7" s="46"/>
-      <c r="AK7" s="46"/>
-      <c r="AL7" s="46"/>
-      <c r="AM7" s="46"/>
-      <c r="AN7" s="46"/>
-      <c r="AO7" s="46"/>
-      <c r="AP7" s="46"/>
-      <c r="AQ7" s="46"/>
-      <c r="AR7" s="46"/>
-      <c r="AS7" s="46"/>
-      <c r="AT7" s="46"/>
-      <c r="AU7" s="46"/>
-      <c r="AV7" s="46"/>
-      <c r="AW7" s="46"/>
-      <c r="AX7" s="46"/>
-      <c r="AY7" s="46"/>
-      <c r="AZ7" s="46"/>
-      <c r="BA7" s="46"/>
-      <c r="BB7" s="46"/>
-      <c r="BC7" s="46"/>
-      <c r="BD7" s="46"/>
-      <c r="BE7" s="46"/>
-      <c r="BF7" s="46"/>
-      <c r="BG7" s="46"/>
-      <c r="BH7" s="46"/>
-      <c r="BI7" s="46"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+      <c r="AL7" s="64"/>
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="64"/>
+      <c r="AO7" s="64"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="64"/>
+      <c r="AR7" s="64"/>
+      <c r="AS7" s="64"/>
+      <c r="AT7" s="64"/>
+      <c r="AU7" s="64"/>
+      <c r="AV7" s="64"/>
+      <c r="AW7" s="64"/>
+      <c r="AX7" s="64"/>
+      <c r="AY7" s="64"/>
+      <c r="AZ7" s="64"/>
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="64"/>
+      <c r="BE7" s="64"/>
+      <c r="BF7" s="64"/>
+      <c r="BG7" s="64"/>
+      <c r="BH7" s="64"/>
+      <c r="BI7" s="64"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -18213,75 +18793,75 @@
       <c r="IX7" s="1"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="63"/>
+      <c r="T8" s="63"/>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="45"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="45"/>
-      <c r="AL8" s="45"/>
-      <c r="AM8" s="45"/>
-      <c r="AN8" s="45"/>
-      <c r="AO8" s="45"/>
-      <c r="AP8" s="45"/>
-      <c r="AQ8" s="45"/>
-      <c r="AR8" s="45"/>
-      <c r="AS8" s="45"/>
-      <c r="AT8" s="45"/>
-      <c r="AU8" s="45"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="45"/>
-      <c r="AX8" s="45"/>
-      <c r="AY8" s="45"/>
-      <c r="AZ8" s="45"/>
-      <c r="BA8" s="45"/>
-      <c r="BB8" s="45"/>
-      <c r="BC8" s="45"/>
-      <c r="BD8" s="45"/>
-      <c r="BE8" s="45"/>
-      <c r="BF8" s="45"/>
-      <c r="BG8" s="45"/>
-      <c r="BH8" s="45"/>
-      <c r="BI8" s="45"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
       <c r="BL8" s="1"/>
@@ -18481,75 +19061,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>24</v>
+      <c r="A9" s="62" t="s">
+        <v>23</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45" t="s">
-        <v>39</v>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63" t="s">
+        <v>38</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="45"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="45"/>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45" t="s">
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="AF9" s="45"/>
-      <c r="AG9" s="45"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="45"/>
-      <c r="AJ9" s="45"/>
-      <c r="AK9" s="45"/>
-      <c r="AL9" s="45"/>
-      <c r="AM9" s="45"/>
-      <c r="AN9" s="45"/>
-      <c r="AO9" s="45"/>
-      <c r="AP9" s="45"/>
-      <c r="AQ9" s="45"/>
-      <c r="AR9" s="45"/>
-      <c r="AS9" s="45"/>
-      <c r="AT9" s="45"/>
-      <c r="AU9" s="45"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="45"/>
-      <c r="AX9" s="45"/>
-      <c r="AY9" s="45"/>
-      <c r="AZ9" s="45"/>
-      <c r="BA9" s="45"/>
-      <c r="BB9" s="45"/>
-      <c r="BC9" s="45"/>
-      <c r="BD9" s="45"/>
-      <c r="BE9" s="45"/>
-      <c r="BF9" s="45"/>
-      <c r="BG9" s="45"/>
-      <c r="BH9" s="45"/>
-      <c r="BI9" s="45"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="63"/>
+      <c r="T9" s="63"/>
+      <c r="U9" s="63"/>
+      <c r="V9" s="63"/>
+      <c r="W9" s="63"/>
+      <c r="X9" s="63"/>
+      <c r="Y9" s="63"/>
+      <c r="Z9" s="63"/>
+      <c r="AA9" s="63"/>
+      <c r="AB9" s="63"/>
+      <c r="AC9" s="63"/>
+      <c r="AD9" s="63"/>
+      <c r="AE9" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF9" s="63"/>
+      <c r="AG9" s="63"/>
+      <c r="AH9" s="63"/>
+      <c r="AI9" s="63"/>
+      <c r="AJ9" s="63"/>
+      <c r="AK9" s="63"/>
+      <c r="AL9" s="63"/>
+      <c r="AM9" s="63"/>
+      <c r="AN9" s="63"/>
+      <c r="AO9" s="63"/>
+      <c r="AP9" s="63"/>
+      <c r="AQ9" s="63"/>
+      <c r="AR9" s="63"/>
+      <c r="AS9" s="63"/>
+      <c r="AT9" s="63"/>
+      <c r="AU9" s="63"/>
+      <c r="AV9" s="63"/>
+      <c r="AW9" s="63"/>
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="63"/>
+      <c r="BC9" s="63"/>
+      <c r="BD9" s="63"/>
+      <c r="BE9" s="63"/>
+      <c r="BF9" s="63"/>
+      <c r="BG9" s="63"/>
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="63"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -18749,75 +19329,75 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45" t="s">
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="63"/>
+      <c r="T10" s="63"/>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
-      <c r="T10" s="45"/>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="45"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="45"/>
-      <c r="AA10" s="45"/>
-      <c r="AB10" s="45"/>
-      <c r="AC10" s="45"/>
-      <c r="AD10" s="45"/>
-      <c r="AE10" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="49"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="49"/>
-      <c r="BB10" s="49"/>
-      <c r="BC10" s="49"/>
-      <c r="BD10" s="49"/>
-      <c r="BE10" s="49"/>
-      <c r="BF10" s="49"/>
-      <c r="BG10" s="49"/>
-      <c r="BH10" s="49"/>
-      <c r="BI10" s="49"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="71"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="71"/>
+      <c r="AN10" s="71"/>
+      <c r="AO10" s="71"/>
+      <c r="AP10" s="71"/>
+      <c r="AQ10" s="71"/>
+      <c r="AR10" s="71"/>
+      <c r="AS10" s="71"/>
+      <c r="AT10" s="71"/>
+      <c r="AU10" s="71"/>
+      <c r="AV10" s="71"/>
+      <c r="AW10" s="71"/>
+      <c r="AX10" s="71"/>
+      <c r="AY10" s="71"/>
+      <c r="AZ10" s="71"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="71"/>
+      <c r="BC10" s="71"/>
+      <c r="BD10" s="71"/>
+      <c r="BE10" s="71"/>
+      <c r="BF10" s="71"/>
+      <c r="BG10" s="71"/>
+      <c r="BH10" s="71"/>
+      <c r="BI10" s="71"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -19017,75 +19597,75 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>29</v>
+      <c r="A11" s="62" t="s">
+        <v>28</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45" t="s">
-        <v>40</v>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63" t="s">
+        <v>39</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="63"/>
+      <c r="T11" s="63"/>
+      <c r="U11" s="63"/>
+      <c r="V11" s="63"/>
+      <c r="W11" s="63"/>
+      <c r="X11" s="63"/>
+      <c r="Y11" s="63"/>
+      <c r="Z11" s="63"/>
+      <c r="AA11" s="63"/>
+      <c r="AB11" s="63"/>
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="63"/>
+      <c r="AE11" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="45"/>
-      <c r="AA11" s="45"/>
-      <c r="AB11" s="45"/>
-      <c r="AC11" s="45"/>
-      <c r="AD11" s="45"/>
-      <c r="AE11" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF11" s="45"/>
-      <c r="AG11" s="45"/>
-      <c r="AH11" s="45"/>
-      <c r="AI11" s="45"/>
-      <c r="AJ11" s="45"/>
-      <c r="AK11" s="45"/>
-      <c r="AL11" s="45"/>
-      <c r="AM11" s="45"/>
-      <c r="AN11" s="45"/>
-      <c r="AO11" s="45"/>
-      <c r="AP11" s="45"/>
-      <c r="AQ11" s="45"/>
-      <c r="AR11" s="45"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="45"/>
-      <c r="AX11" s="45"/>
-      <c r="AY11" s="45"/>
-      <c r="AZ11" s="45"/>
-      <c r="BA11" s="45"/>
-      <c r="BB11" s="45"/>
-      <c r="BC11" s="45"/>
-      <c r="BD11" s="45"/>
-      <c r="BE11" s="45"/>
-      <c r="BF11" s="45"/>
-      <c r="BG11" s="45"/>
-      <c r="BH11" s="45"/>
-      <c r="BI11" s="45"/>
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63"/>
+      <c r="AH11" s="63"/>
+      <c r="AI11" s="63"/>
+      <c r="AJ11" s="63"/>
+      <c r="AK11" s="63"/>
+      <c r="AL11" s="63"/>
+      <c r="AM11" s="63"/>
+      <c r="AN11" s="63"/>
+      <c r="AO11" s="63"/>
+      <c r="AP11" s="63"/>
+      <c r="AQ11" s="63"/>
+      <c r="AR11" s="63"/>
+      <c r="AS11" s="63"/>
+      <c r="AT11" s="63"/>
+      <c r="AU11" s="63"/>
+      <c r="AV11" s="63"/>
+      <c r="AW11" s="63"/>
+      <c r="AX11" s="63"/>
+      <c r="AY11" s="63"/>
+      <c r="AZ11" s="63"/>
+      <c r="BA11" s="63"/>
+      <c r="BB11" s="63"/>
+      <c r="BC11" s="63"/>
+      <c r="BD11" s="63"/>
+      <c r="BE11" s="63"/>
+      <c r="BF11" s="63"/>
+      <c r="BG11" s="63"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="63"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -19545,73 +20125,73 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="69"/>
+      <c r="W13" s="69"/>
+      <c r="X13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="69"/>
+      <c r="AC13" s="69"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="69"/>
+      <c r="AF13" s="69"/>
+      <c r="AG13" s="69"/>
+      <c r="AH13" s="69"/>
+      <c r="AI13" s="69"/>
+      <c r="AJ13" s="69"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="69"/>
+      <c r="AM13" s="69"/>
+      <c r="AN13" s="69"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="69"/>
+      <c r="AQ13" s="69"/>
+      <c r="AR13" s="69"/>
+      <c r="AS13" s="69"/>
+      <c r="AT13" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="47"/>
-      <c r="X13" s="47"/>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="47"/>
-      <c r="AC13" s="47"/>
-      <c r="AD13" s="47"/>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47"/>
-      <c r="AG13" s="47"/>
-      <c r="AH13" s="47"/>
-      <c r="AI13" s="47"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="47"/>
-      <c r="AP13" s="47"/>
-      <c r="AQ13" s="47"/>
-      <c r="AR13" s="47"/>
-      <c r="AS13" s="47"/>
-      <c r="AT13" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU13" s="47"/>
-      <c r="AV13" s="47"/>
-      <c r="AW13" s="47"/>
-      <c r="AX13" s="47"/>
-      <c r="AY13" s="47"/>
-      <c r="AZ13" s="47"/>
-      <c r="BA13" s="47"/>
-      <c r="BB13" s="47"/>
-      <c r="BC13" s="47"/>
-      <c r="BD13" s="47"/>
-      <c r="BE13" s="47"/>
-      <c r="BF13" s="47"/>
-      <c r="BG13" s="47"/>
-      <c r="BH13" s="47"/>
-      <c r="BI13" s="48"/>
+      <c r="AU13" s="69"/>
+      <c r="AV13" s="69"/>
+      <c r="AW13" s="69"/>
+      <c r="AX13" s="69"/>
+      <c r="AY13" s="69"/>
+      <c r="AZ13" s="69"/>
+      <c r="BA13" s="69"/>
+      <c r="BB13" s="69"/>
+      <c r="BC13" s="69"/>
+      <c r="BD13" s="69"/>
+      <c r="BE13" s="69"/>
+      <c r="BF13" s="69"/>
+      <c r="BG13" s="69"/>
+      <c r="BH13" s="69"/>
+      <c r="BI13" s="70"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -30523,6 +31103,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -30531,7 +31117,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -30663,13 +31249,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1E88503-2BF5-4213-82B7-01925F2C7A20}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -30677,7 +31266,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27446016-DB91-4EAC-B347-E10B099FE93C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30693,13 +31282,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFC473E1-630C-47C0-8277-41F4549C3C72}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>